--- a/scripts/Irradiancetest_SalinityMult_Fit-2.xlsx
+++ b/scripts/Irradiancetest_SalinityMult_Fit-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\PSF\EwE\Georgia Strait 2021\LTL_model\SCRIPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greig\Documents\github\Ecosystem-Model-Data-Framework\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D50741E-5FE6-4CF9-BB16-895BFF34E321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA60DA1-80EF-4CDF-9457-93CF6DECEDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C38FC2C9-5C90-46CF-89CA-BC452CCF3AA7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{C38FC2C9-5C90-46CF-89CA-BC452CCF3AA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Salin-K parameterization" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>Mixing Layer thickness</t>
   </si>
@@ -215,6 +215,60 @@
   </si>
   <si>
     <t>Olson's method</t>
+  </si>
+  <si>
+    <t>Zp = 4.6/K</t>
+  </si>
+  <si>
+    <t>Platt 1988</t>
+  </si>
+  <si>
+    <t>Sun et al., 2021</t>
+  </si>
+  <si>
+    <t>Wow!</t>
+  </si>
+  <si>
+    <t>Just 0.22 * Incident I (minus albedo and only PP spectrum)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steele's </t>
+  </si>
+  <si>
+    <t>Sun et al 2021</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Is  = Pmax / slope</t>
+  </si>
+  <si>
+    <t>P_max</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>I_s</t>
+  </si>
+  <si>
+    <t>F(I) = I/Is * EXP (1-I/Is*)</t>
+  </si>
+  <si>
+    <t>Platt's</t>
+  </si>
+  <si>
+    <t>tanh(I/I_s)</t>
+  </si>
+  <si>
+    <t>Platt shortcut, 1988 - average light level over all depths until 1% of I_0</t>
+  </si>
+  <si>
+    <t>Zp = depth of photic zone</t>
   </si>
 </sst>
 </file>
@@ -1185,6 +1239,2086 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Steele's</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Salin-K parameterization'!$BC$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Salin-K parameterization'!$BC$12:$BC$262</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="251"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3289124838588338E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10446785893692472</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15359888509975628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20074323119490384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.245960311115695</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28930796477006515</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33084249711881131</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37061871628497467</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40868997075583308</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44510818569849359</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.47992389840960425</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.51318629291923645</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54494323376853471</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.57524129898028864</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.60412581224114292</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.63164087431374316</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.6578293936966908</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68273311654978253</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.70639265590161004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.72884752015620358</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.75013614091503078</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.77029590013028459</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.78936315660503498</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.80737327185546548</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.8243606353500641</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.84035868914030465</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.85539995189702023</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.86951604236634827</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.88273770225880754</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.89509481858476214</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.90661644544921915</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.91733082531861765</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.92726540977197192</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.93644687974845076</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.94490116530320212</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.95265346488295455</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95972826413267109</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.96614935424426762</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.97193984985815707</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.97712220652813597</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.98171823775988432</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.98574913163312061</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.98923546701721554</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.99219722938985067</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.99465382626808274</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.99662410226096176</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.99812635375263803</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.99917834322469268</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.99979731322622067</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99980264677289032</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.99922101671841612</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99827040559930358</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99696565409756666</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.9953211598395556</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.99335088912321634</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.99106838835463862</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.98848679520080518</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.98561884946530109</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.98247690369357832</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.97907293351422375</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.97541854772252634</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.97152499811249349</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.96740318906332867</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.96306368688623323</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.95851672893727191</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.95377223250189702</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.94883980345660224</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.94372874471305113</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.93844806444989504</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.93300648413738074</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.92741244635972364</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.92167412244011182</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.91579941987308844</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.90979598956895014</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.90367123291469542</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.89743230865594403</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.89108613960415117</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.88463941917333522</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.87809861775044229</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.87146998890337268</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.86475957543059978</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.85797321525622072</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.85111654717419061</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.84419501644539618</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.83721388025115129</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.83017821300659977</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.82309291153744024</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.81596270012329786</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.80879213541099881</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.80158561120091865</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.7943473631095066</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.78708147311101273</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.77979187396137306</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.77248235350713834</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.76515655888226719</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.75781800059553095</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.75047005651121967</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.74311597572577115</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.73575888234288467</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.72840177914961823</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.72104755119591157</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.71369896927991827</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.70635869334147339</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.69902927576596707</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.69171316460084376</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.68441270668689025</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.67713015070642746</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.66986765015046601</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.66262726620684453</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.65541097057131148</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.64822064818347336</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.64105809988948115</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.63392504503328273</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.62682312397822904</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.61975390056077284</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.61271886447796287</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.60571943361039193</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.59875695628222048</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.59183271345985555</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.58494792089082814</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.57810373118437708</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.57130123583520676</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.56454146719185561</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.55782540037107453</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.55115395511958121</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.54452799762452397</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.53794834227395771</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.53141575336859925</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.52493094678610397</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.51849459159907041</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.51210731164795464</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.50576968707004455</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.49948225578561867</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.4932455149423835</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.48705992231926154</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.48092589769057137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.47484382415161952</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.46881404940669558</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.46283688702044234</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.45691261763354385</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.4510414901436548</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.44522372285247236</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.43945950457982558</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.43374899574564169</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.42809232942062242</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.42248961234644661</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.41694092592629323</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.41144632718646063</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.40600584970983811</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.4006195045419676</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.39528728107041478</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.3900091478781515</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.38478505357163384</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.37961492758424392</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.37449868095574501</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.36943620708838665</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.36442738248027756</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.35947206743663052</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.35457010675946843</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.34972133041636466</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.34492555418877913</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.340182580300534</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.3354921980269629</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.33085418428525237</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.32626830420648029</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.32173431168984673</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.31725194993957589</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.31282095198496029</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.30844104118400251</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.30411193171110129</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.29983332902921567</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.29560493034693147</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.29142642506084193</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.28729749518364578</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.2832178157583542</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.27918705525898929</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.27520487597814708</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.27127093440178685</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.26738488157160195</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.26354636343531684</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.25975502118524524</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.25601049158543859</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.25231240728774273</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.24866039713707411</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.24505408646621898</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.24149309738045011</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.23797704903224914</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.23450555788641442</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.2310782379758283</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.22769470114814838</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.22435455730368317</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.22105741462470399</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.21780287979643884</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.21459055821998818</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.2114200542173956</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.20829097122910045</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.20520291200399429</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.20215547878229603</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.19914827347145578</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.19618089781529216</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.19325295355656141</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.19036404259315332</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.18751376712810036</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.18470172981358704</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.1819275338891346</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.17919078331413887</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.17649108289492738</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.17382803840650388</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.17120125670913811</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.16861034585995952</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.16605491521970517</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.16353457555477183</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.16104893913471413</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.15859761982533205</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.1561802331774805</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.1537963965117381</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.15144572899906009</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.14912785173754511</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.14684238782543471</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.14458896243046759</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.14236720285570176</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.14017673860191998</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.13801720142672477</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.13588822540043324</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.13378944695887188</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.13172050495317461</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.1296810406966814</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.12767069800903133</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.1256891232575458</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.12373596539598837</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.12181087600079218</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.11991350930483732</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.1180435222288634</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.11620057441059513</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.1143843282316621</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.11259444884238569</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.11083060418450977</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.1090924650119444</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.10737970490959488</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.10569200031034097</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.10402903051023522</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.10239047768198133</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.10077602688675733</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>9.9185366084441479E-2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>9.7618186142301819E-2</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>9.6074180842203802E-2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>9.4553046886393724E-2</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>9.3054483901909166E-2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>9.1578194443670893E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E22-4075-B5F6-EAE637C13D19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1417411680"/>
+        <c:axId val="2004342015"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1417411680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2004342015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2004342015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1417411680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Platts</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Salin-K parameterization'!$BE$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Salin-K parameterization'!$BE$12:$BE$262</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="251"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9997333759930933E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9978680311163563E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9928103529143496E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9829769111131349E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9667994624955833E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11942729853438588</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13909244787845804</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15864850429749897</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1780808681173302</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19737532022490403</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21651806149302882</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23549574953849794</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25429553262639121</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27290508056313273</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2913126124515909</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.30950692121263851</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32747739480870541</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.34521403413552082</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.36270746757805111</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.3799489622552249</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.39693043200507755</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.41364444218713514</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.43008421140197955</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.44624361024877962</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.46211715726000979</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.47770001216849806</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.49298796667532446</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.50797743289789621</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.52266542968582086</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5370495669980353</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.55112802853814702</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.56489955284622506</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.57836341304450578</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.59151939543181653</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.60436777711716361</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.61690930287706502</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.62914516141403543</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.64107696118534641</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.65270670596198999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.66403677026784891</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.67506987483860781</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.68580906222909455</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.69625767268668137</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.70641932039723521</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.71629787019902458</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.72589741484908077</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.73522225291586907</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.74427686736183729</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.75306590486955205</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.76159415595576485</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.76986653590890031</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.77788806657718479</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.78566385902694369</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.79319909708350078</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.8004990217606297</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.8075689165786144</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.81441409376568585</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.82103988133287698</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.82745161100816667</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.83365460701215521</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.83965417565437528</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.84545559572668028</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.85106410966794399</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.85648491547249728</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.86172315931330645</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.8667839288498187</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.87167224718965208</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.87639306747282286</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.88095126804699697</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.88535164820226242</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.88959892443413136</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.89369772720387253</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.89765259816581688</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.9014679878319467</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.9051482536448664</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.90869765843111261</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.91212036920771722</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.91542045631593238</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.91860189285706695</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.92166855440647122</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.92462421898278824</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.92747256725070348</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.93021718293652611</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.93286155343703503</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.93540907060309908</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.93786303168066509</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.94022664039272752</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.9425030081469199</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.94469515535435389</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9468060128462682</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.94883842337598456</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.95079514319452119</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.95267884368907774</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.95449211307439197</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95623745812773897</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.95791730595906355</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.95953400580842918</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.96108983086361388</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.96258698009129084</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.96402758007581701</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.96541368686018914</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.9667472877842368</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.96803030331559492</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.96926458886944888</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.97045193661345408</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.97159407725461766</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.97269268180529833</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.97374936332579454</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.97476567864132269</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.97574313003145152</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.97668316689033396</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.97758718735631422</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.97845653990971682</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.97929252493781638</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.98009639626619138</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.98086936265581648</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.98161258926542383</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.98232719907878463</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.9830142742967114</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.98367485769368002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.98430995393908882</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.98492053088325326</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.98550752080833703</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.98607182164447582</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.98661429815143042</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.98713578306616279</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.98763707821677771</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.9881189556033193</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.98858215844595332</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.9890274022010993</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.98945537554610263</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.98986674133306751</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.99026213751248282</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.99064217802729859</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.99100745367811749</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.99135853296017618</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.99169596287279871</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.99202026970201185</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.99233195977700506</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.99263152020112788</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.99291941955810714</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.99319610859416563</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.99346202087672264</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.99371757343034117</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.99396316735058299</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.9941991883964314</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.99442600756191546</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.99464398162757395</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.9948534536923791</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.99505475368673058</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.99524819886711013</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.99543409429299401</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.9956127332865824</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.99578439787591344</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.99594935922190031</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.9961078780298287</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.9962602049458319</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.99640658093884316</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.9965472376685256</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.99668239783965107</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.99681227554339413</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.9969370765859934</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.99705699880522092</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.99717223237507857</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.99728296009914219</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.99738935769294657</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.99749159405580634</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.99758983153244207</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.99768422616478092</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.99777492793427935</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.9978620809951162</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.997945823898577</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.99802628980895802</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.99810360671129239</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.99817789761119868</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.9982492807271417</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.99831786967538227</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.99838377364788755</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.99844709758345851</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.99850794233232665</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.99856640481446723</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.99862257817185351</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.99867655191488602</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.99872841206320939</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.99877824128113124</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.99882611900783846</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.99887212158261562</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.9989163223652453</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.99895879185177816</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.9989995977858408</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.99903880526565947</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.99907647684695178</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.99911267264185133</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.9991474504140101</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.99918086567002806</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.99921297174734702</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.99924381989874578</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.99927345937356382</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.99930193749577989</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.99932929973906692</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.99935558979893724</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.99938084966208895</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.99940511967306356</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.9994284385983162</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.99945084368779735</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.9994723707341433</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.99949305412956702</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.99951292692053662</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.99953202086032766</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.99955036645953332</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.99956799303460675</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.99958492875451532</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.99960120068557801</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.99961683483455754</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.99963185619007322</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.99964628876239991</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.99966015562171673</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.99967347893486391</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.99968628000066617</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.99969857928388062</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.99971039644781656</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.99972175038568678</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.99973265925073274</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.99974314048517354</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.9997532108480276</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.9997628864418443</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.99977218273839508</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.99978111460335883</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.99978969632004444</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.99979794161218449</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.9998058636658409</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.99981347515045249</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.99982078823906084</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.99982781462774484</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.99983456555429673</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.99984105181616556</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.99984728378770138</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.99985327143672453</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.9998590243404446</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.9998645517007605</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.99986986235895869</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.9998749648098384</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.99987986721528299</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.99988457741730052</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.99988910295055433</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.99989345105440441</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.99989762868447296</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.99990164252376423</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.99990549899334236</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.999909204262595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A25B-4661-832C-2D9BADC32592}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="365257696"/>
+        <c:axId val="365256256"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="365257696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365256256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="365256256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365257696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Fit Exponential Light Multiplier </a:t>
             </a:r>
           </a:p>
@@ -1552,7 +3686,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1952,7 +4086,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2823,6 +4957,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3843,7 +6057,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3870,8 +6084,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3951,6 +6165,1038 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4358,7 +7604,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4874,7 +8120,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5508,6 +8754,256 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>190932</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>120813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE773F9E-B453-3B52-2CC3-6C9A68A7B159}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25044400" y="4692650"/>
+          <a:ext cx="8407832" cy="3162463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>400290</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>139934</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C23312-6188-C126-2D47-C8E08FCE9549}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25336500" y="8839200"/>
+          <a:ext cx="4667490" cy="4559534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>578099</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>133584</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE9D7388-F1CB-BA58-6D2D-CEE07B78C2D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25336500" y="13811250"/>
+          <a:ext cx="4845299" cy="4553184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>222634</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>82679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F40D447-D7C8-D830-E5E0-04816750EB94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39973250" y="3657600"/>
+          <a:ext cx="7474334" cy="2502029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>530224</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>450849</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E892B1C1-17F8-752E-372C-FE33C4127112}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78DA5B75-4D5C-4AD9-8521-2821B0DAE3B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5625,9 +9121,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5665,7 +9161,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5771,7 +9267,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5913,7 +9409,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5921,36 +9417,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE4E476-7789-41A8-A99A-C7B8C3DE4629}">
-  <dimension ref="B3:AC39"/>
+  <dimension ref="B3:BL262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" customWidth="1"/>
+    <col min="54" max="54" width="16.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:57" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:57" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:57" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:57" x14ac:dyDescent="0.35">
+      <c r="BB6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:57" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>41</v>
       </c>
@@ -5964,7 +9466,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:57" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>42</v>
       </c>
@@ -5992,8 +9494,14 @@
       <c r="P9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="BB9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:57" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>7</v>
       </c>
@@ -6042,8 +9550,14 @@
       <c r="AC10">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="BB10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="2:57" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>30</v>
       </c>
@@ -6087,8 +9601,23 @@
       <c r="AC11">
         <v>6.7000000000000004E-2</v>
       </c>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AZ11" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:57" x14ac:dyDescent="0.35">
       <c r="J12">
         <f t="shared" ref="J12:J37" si="2">J11+1</f>
         <v>12</v>
@@ -6115,8 +9644,25 @@
         <f>Y10*-1</f>
         <v>6.6</v>
       </c>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AZ12" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <f>BB12/$BA$13*EXP(1-BB12/$BA$13)</f>
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <f>TANH(BB12/$BA$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:57" x14ac:dyDescent="0.35">
       <c r="J13">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -6154,8 +9700,30 @@
         <f>N10*AC10*(1-AC11)</f>
         <v>93.598560000000006</v>
       </c>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA13">
+        <f>BA11/BA12</f>
+        <v>50</v>
+      </c>
+      <c r="BB13" s="1">
+        <f>BB12+1</f>
+        <v>1</v>
+      </c>
+      <c r="BC13">
+        <f t="shared" ref="BC13:BC76" si="4">BB13/$BA$13*EXP(1-BB13/$BA$13)</f>
+        <v>5.3289124838588338E-2</v>
+      </c>
+      <c r="BE13">
+        <f t="shared" ref="BE13:BE76" si="5">TANH(BB13/$BA$13)</f>
+        <v>1.9997333759930933E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:57" x14ac:dyDescent="0.35">
       <c r="J14">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -6179,8 +9747,30 @@
         <f>AC13*Y13</f>
         <v>14.162307804638711</v>
       </c>
-    </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE14">
+        <f>0.22*N10*0.44*(1-AC11)</f>
+        <v>20.591683200000002</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB14" s="1">
+        <f t="shared" ref="BB14:BB77" si="6">BB13+1</f>
+        <v>2</v>
+      </c>
+      <c r="BC14">
+        <f t="shared" si="4"/>
+        <v>0.10446785893692472</v>
+      </c>
+      <c r="BE14">
+        <f t="shared" si="5"/>
+        <v>3.9978680311163563E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:57" x14ac:dyDescent="0.35">
       <c r="J15">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -6200,8 +9790,20 @@
       <c r="U15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="BB15" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="BC15">
+        <f t="shared" si="4"/>
+        <v>0.15359888509975628</v>
+      </c>
+      <c r="BE15">
+        <f t="shared" si="5"/>
+        <v>5.9928103529143496E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:57" x14ac:dyDescent="0.35">
       <c r="J16">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -6219,15 +9821,30 @@
         <v>15.471737907141463</v>
       </c>
       <c r="R16">
-        <f>AVERAGE(P10:P32)</f>
-        <v>15.68552169815422</v>
+        <f>AVERAGE(P10:P25)</f>
+        <v>22.384932828614247</v>
       </c>
       <c r="U16">
-        <f>N13*(1-EXP(-M10*O32))/(M10*O32)</f>
-        <v>14.162307804638711</v>
-      </c>
-    </row>
-    <row r="17" spans="10:16" x14ac:dyDescent="0.25">
+        <f>N13*(1-EXP(-M10*O25))/(M10*O25)</f>
+        <v>20.568616426883452</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>71</v>
+      </c>
+      <c r="BB16" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="BC16">
+        <f t="shared" si="4"/>
+        <v>0.20074323119490384</v>
+      </c>
+      <c r="BE16">
+        <f t="shared" si="5"/>
+        <v>7.9829769111131349E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="10:64" x14ac:dyDescent="0.35">
       <c r="J17">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -6244,8 +9861,27 @@
         <f t="shared" si="1"/>
         <v>11.461745347222422</v>
       </c>
-    </row>
-    <row r="18" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AE17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF17">
+        <f>4.6/M10</f>
+        <v>15.333333333333332</v>
+      </c>
+      <c r="BB17" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="BC17">
+        <f t="shared" si="4"/>
+        <v>0.245960311115695</v>
+      </c>
+      <c r="BE17">
+        <f>TANH(BB17/$BA$13)</f>
+        <v>9.9667994624955833E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="10:64" x14ac:dyDescent="0.35">
       <c r="J18">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -6262,8 +9898,20 @@
         <f t="shared" si="1"/>
         <v>8.4910697940362745</v>
       </c>
-    </row>
-    <row r="19" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="BB18" s="1">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="BC18">
+        <f t="shared" si="4"/>
+        <v>0.28930796477006515</v>
+      </c>
+      <c r="BE18">
+        <f t="shared" si="5"/>
+        <v>0.11942729853438588</v>
+      </c>
+    </row>
+    <row r="19" spans="10:64" x14ac:dyDescent="0.35">
       <c r="J19">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -6280,8 +9928,23 @@
         <f t="shared" si="1"/>
         <v>6.2903392165022352</v>
       </c>
-    </row>
-    <row r="20" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="BB19" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="BC19">
+        <f t="shared" si="4"/>
+        <v>0.33084249711881131</v>
+      </c>
+      <c r="BE19">
+        <f t="shared" si="5"/>
+        <v>0.13909244787845804</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="10:64" x14ac:dyDescent="0.35">
       <c r="J20">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -6298,8 +9961,20 @@
         <f t="shared" si="1"/>
         <v>4.6599979058536158</v>
       </c>
-    </row>
-    <row r="21" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="BB20" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="BC20">
+        <f t="shared" si="4"/>
+        <v>0.37061871628497467</v>
+      </c>
+      <c r="BE20">
+        <f t="shared" si="5"/>
+        <v>0.15864850429749897</v>
+      </c>
+    </row>
+    <row r="21" spans="10:64" x14ac:dyDescent="0.35">
       <c r="J21">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -6316,8 +9991,20 @@
         <f t="shared" si="1"/>
         <v>3.4522113569950079</v>
       </c>
-    </row>
-    <row r="22" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="BB21" s="1">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="BC21">
+        <f t="shared" si="4"/>
+        <v>0.40868997075583308</v>
+      </c>
+      <c r="BE21">
+        <f t="shared" si="5"/>
+        <v>0.1780808681173302</v>
+      </c>
+    </row>
+    <row r="22" spans="10:64" x14ac:dyDescent="0.35">
       <c r="J22">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -6334,8 +10021,20 @@
         <f t="shared" si="1"/>
         <v>2.5574610749062607</v>
       </c>
-    </row>
-    <row r="23" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="BB22" s="1">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="BC22">
+        <f t="shared" si="4"/>
+        <v>0.44510818569849359</v>
+      </c>
+      <c r="BE22">
+        <f t="shared" si="5"/>
+        <v>0.19737532022490403</v>
+      </c>
+    </row>
+    <row r="23" spans="10:64" x14ac:dyDescent="0.35">
       <c r="J23">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -6352,8 +10051,20 @@
         <f t="shared" si="1"/>
         <v>1.8946137629748092</v>
       </c>
-    </row>
-    <row r="24" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="BB23" s="1">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="BC23">
+        <f t="shared" si="4"/>
+        <v>0.47992389840960425</v>
+      </c>
+      <c r="BE23">
+        <f t="shared" si="5"/>
+        <v>0.21651806149302882</v>
+      </c>
+    </row>
+    <row r="24" spans="10:64" x14ac:dyDescent="0.35">
       <c r="J24">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -6370,8 +10081,20 @@
         <f t="shared" si="1"/>
         <v>1.4035643967660916</v>
       </c>
-    </row>
-    <row r="25" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="BB24" s="1">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="BC24">
+        <f t="shared" si="4"/>
+        <v>0.51318629291923645</v>
+      </c>
+      <c r="BE24">
+        <f t="shared" si="5"/>
+        <v>0.23549574953849794</v>
+      </c>
+    </row>
+    <row r="25" spans="10:64" x14ac:dyDescent="0.35">
       <c r="J25">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -6388,8 +10111,23 @@
         <f t="shared" si="1"/>
         <v>1.0397860790244648</v>
       </c>
-    </row>
-    <row r="26" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AO25" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB25" s="1">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="BC25">
+        <f t="shared" si="4"/>
+        <v>0.54494323376853471</v>
+      </c>
+      <c r="BE25">
+        <f t="shared" si="5"/>
+        <v>0.25429553262639121</v>
+      </c>
+    </row>
+    <row r="26" spans="10:64" x14ac:dyDescent="0.35">
       <c r="J26">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -6406,8 +10144,20 @@
         <f t="shared" si="1"/>
         <v>0.77029247295252423</v>
       </c>
-    </row>
-    <row r="27" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="BB26" s="1">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="BC26">
+        <f t="shared" si="4"/>
+        <v>0.57524129898028864</v>
+      </c>
+      <c r="BE26">
+        <f t="shared" si="5"/>
+        <v>0.27290508056313273</v>
+      </c>
+    </row>
+    <row r="27" spans="10:64" x14ac:dyDescent="0.35">
       <c r="J27">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -6424,8 +10174,20 @@
         <f t="shared" si="1"/>
         <v>0.57064669921720945</v>
       </c>
-    </row>
-    <row r="28" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="BB27" s="1">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="BC27">
+        <f t="shared" si="4"/>
+        <v>0.60412581224114292</v>
+      </c>
+      <c r="BE27">
+        <f t="shared" si="5"/>
+        <v>0.2913126124515909</v>
+      </c>
+    </row>
+    <row r="28" spans="10:64" x14ac:dyDescent="0.35">
       <c r="J28">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -6442,8 +10204,20 @@
         <f t="shared" si="1"/>
         <v>0.42274547235198862</v>
       </c>
-    </row>
-    <row r="29" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="BB28" s="1">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="BC28">
+        <f t="shared" si="4"/>
+        <v>0.63164087431374316</v>
+      </c>
+      <c r="BE28">
+        <f t="shared" si="5"/>
+        <v>0.30950692121263851</v>
+      </c>
+    </row>
+    <row r="29" spans="10:64" x14ac:dyDescent="0.35">
       <c r="J29">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -6460,8 +10234,20 @@
         <f t="shared" si="1"/>
         <v>0.31317754862905234</v>
       </c>
-    </row>
-    <row r="30" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="BB29" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="BC29">
+        <f t="shared" si="4"/>
+        <v>0.6578293936966908</v>
+      </c>
+      <c r="BE29">
+        <f t="shared" si="5"/>
+        <v>0.32747739480870541</v>
+      </c>
+    </row>
+    <row r="30" spans="10:64" x14ac:dyDescent="0.35">
       <c r="J30">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -6478,8 +10264,20 @@
         <f t="shared" si="1"/>
         <v>0.23200763433283678</v>
       </c>
-    </row>
-    <row r="31" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="BB30" s="1">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="BC30">
+        <f t="shared" si="4"/>
+        <v>0.68273311654978253</v>
+      </c>
+      <c r="BE30">
+        <f t="shared" si="5"/>
+        <v>0.34521403413552082</v>
+      </c>
+    </row>
+    <row r="31" spans="10:64" x14ac:dyDescent="0.35">
       <c r="J31">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -6496,8 +10294,20 @@
         <f t="shared" si="1"/>
         <v>0.1718754828510268</v>
       </c>
-    </row>
-    <row r="32" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="BB31" s="1">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="BC31">
+        <f t="shared" si="4"/>
+        <v>0.70639265590161004</v>
+      </c>
+      <c r="BE31">
+        <f t="shared" si="5"/>
+        <v>0.36270746757805111</v>
+      </c>
+    </row>
+    <row r="32" spans="10:64" x14ac:dyDescent="0.35">
       <c r="J32">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -6514,8 +10324,20 @@
         <f t="shared" si="1"/>
         <v>0.1273284893845088</v>
       </c>
-    </row>
-    <row r="33" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="BB32" s="1">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="BC32">
+        <f t="shared" si="4"/>
+        <v>0.72884752015620358</v>
+      </c>
+      <c r="BE32">
+        <f t="shared" si="5"/>
+        <v>0.3799489622552249</v>
+      </c>
+    </row>
+    <row r="33" spans="10:57" x14ac:dyDescent="0.35">
       <c r="J33">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -6532,8 +10354,20 @@
         <f t="shared" si="1"/>
         <v>9.4327264947922831E-2</v>
       </c>
-    </row>
-    <row r="34" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="BB33" s="1">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="BC33">
+        <f t="shared" si="4"/>
+        <v>0.75013614091503078</v>
+      </c>
+      <c r="BE33">
+        <f t="shared" si="5"/>
+        <v>0.39693043200507755</v>
+      </c>
+    </row>
+    <row r="34" spans="10:57" x14ac:dyDescent="0.35">
       <c r="J34">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -6550,8 +10384,20 @@
         <f t="shared" si="1"/>
         <v>6.9879356580493171E-2</v>
       </c>
-    </row>
-    <row r="35" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="BB34" s="1">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="BC34">
+        <f t="shared" si="4"/>
+        <v>0.77029590013028459</v>
+      </c>
+      <c r="BE34">
+        <f t="shared" si="5"/>
+        <v>0.41364444218713514</v>
+      </c>
+    </row>
+    <row r="35" spans="10:57" x14ac:dyDescent="0.35">
       <c r="J35">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -6568,8 +10414,20 @@
         <f t="shared" si="1"/>
         <v>5.1767900604344219E-2</v>
       </c>
-    </row>
-    <row r="36" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="BB35" s="1">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="BC35">
+        <f t="shared" si="4"/>
+        <v>0.78936315660503498</v>
+      </c>
+      <c r="BE35">
+        <f t="shared" si="5"/>
+        <v>0.43008421140197955</v>
+      </c>
+    </row>
+    <row r="36" spans="10:57" x14ac:dyDescent="0.35">
       <c r="J36">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -6586,8 +10444,20 @@
         <f t="shared" si="1"/>
         <v>3.8350604014138319E-2</v>
       </c>
-    </row>
-    <row r="37" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="BB36" s="1">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="BC36">
+        <f t="shared" si="4"/>
+        <v>0.80737327185546548</v>
+      </c>
+      <c r="BE36">
+        <f t="shared" si="5"/>
+        <v>0.44624361024877962</v>
+      </c>
+    </row>
+    <row r="37" spans="10:57" x14ac:dyDescent="0.35">
       <c r="J37">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -6604,8 +10474,20 @@
         <f t="shared" si="1"/>
         <v>2.8410826227823097E-2</v>
       </c>
-    </row>
-    <row r="38" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="BB37" s="1">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="BC37">
+        <f t="shared" si="4"/>
+        <v>0.8243606353500641</v>
+      </c>
+      <c r="BE37">
+        <f t="shared" si="5"/>
+        <v>0.46211715726000979</v>
+      </c>
+    </row>
+    <row r="38" spans="10:57" x14ac:dyDescent="0.35">
       <c r="O38">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -6614,8 +10496,20 @@
         <f t="shared" si="1"/>
         <v>2.1047257734193376E-2</v>
       </c>
-    </row>
-    <row r="39" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="BB38" s="1">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="BC38">
+        <f t="shared" si="4"/>
+        <v>0.84035868914030465</v>
+      </c>
+      <c r="BE38">
+        <f t="shared" si="5"/>
+        <v>0.47770001216849806</v>
+      </c>
+    </row>
+    <row r="39" spans="10:57" x14ac:dyDescent="0.35">
       <c r="O39">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -6623,6 +10517,3143 @@
       <c r="P39">
         <f t="shared" si="1"/>
         <v>1.5592192024874678E-2</v>
+      </c>
+      <c r="BB39" s="1">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="BC39">
+        <f t="shared" si="4"/>
+        <v>0.85539995189702023</v>
+      </c>
+      <c r="BE39">
+        <f t="shared" si="5"/>
+        <v>0.49298796667532446</v>
+      </c>
+    </row>
+    <row r="40" spans="10:57" x14ac:dyDescent="0.35">
+      <c r="BB40" s="1">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="BC40">
+        <f t="shared" si="4"/>
+        <v>0.86951604236634827</v>
+      </c>
+      <c r="BE40">
+        <f t="shared" si="5"/>
+        <v>0.50797743289789621</v>
+      </c>
+    </row>
+    <row r="41" spans="10:57" x14ac:dyDescent="0.35">
+      <c r="BB41" s="1">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="BC41">
+        <f t="shared" si="4"/>
+        <v>0.88273770225880754</v>
+      </c>
+      <c r="BE41">
+        <f t="shared" si="5"/>
+        <v>0.52266542968582086</v>
+      </c>
+    </row>
+    <row r="42" spans="10:57" x14ac:dyDescent="0.35">
+      <c r="BB42" s="1">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="BC42">
+        <f t="shared" si="4"/>
+        <v>0.89509481858476214</v>
+      </c>
+      <c r="BE42">
+        <f t="shared" si="5"/>
+        <v>0.5370495669980353</v>
+      </c>
+    </row>
+    <row r="43" spans="10:57" x14ac:dyDescent="0.35">
+      <c r="BB43" s="1">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="BC43">
+        <f t="shared" si="4"/>
+        <v>0.90661644544921915</v>
+      </c>
+      <c r="BE43">
+        <f t="shared" si="5"/>
+        <v>0.55112802853814702</v>
+      </c>
+    </row>
+    <row r="44" spans="10:57" x14ac:dyDescent="0.35">
+      <c r="BB44" s="1">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="BC44">
+        <f t="shared" si="4"/>
+        <v>0.91733082531861765</v>
+      </c>
+      <c r="BE44">
+        <f t="shared" si="5"/>
+        <v>0.56489955284622506</v>
+      </c>
+    </row>
+    <row r="45" spans="10:57" x14ac:dyDescent="0.35">
+      <c r="BB45" s="1">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="BC45">
+        <f t="shared" si="4"/>
+        <v>0.92726540977197192</v>
+      </c>
+      <c r="BE45">
+        <f t="shared" si="5"/>
+        <v>0.57836341304450578</v>
+      </c>
+    </row>
+    <row r="46" spans="10:57" x14ac:dyDescent="0.35">
+      <c r="BB46" s="1">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="BC46">
+        <f t="shared" si="4"/>
+        <v>0.93644687974845076</v>
+      </c>
+      <c r="BE46">
+        <f t="shared" si="5"/>
+        <v>0.59151939543181653</v>
+      </c>
+    </row>
+    <row r="47" spans="10:57" x14ac:dyDescent="0.35">
+      <c r="AN47" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB47" s="1">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="BC47">
+        <f t="shared" si="4"/>
+        <v>0.94490116530320212</v>
+      </c>
+      <c r="BE47">
+        <f t="shared" si="5"/>
+        <v>0.60436777711716361</v>
+      </c>
+    </row>
+    <row r="48" spans="10:57" x14ac:dyDescent="0.35">
+      <c r="BB48" s="1">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="BC48">
+        <f t="shared" si="4"/>
+        <v>0.95265346488295455</v>
+      </c>
+      <c r="BE48">
+        <f t="shared" si="5"/>
+        <v>0.61690930287706502</v>
+      </c>
+    </row>
+    <row r="49" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB49" s="1">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="BC49">
+        <f t="shared" si="4"/>
+        <v>0.95972826413267109</v>
+      </c>
+      <c r="BE49">
+        <f t="shared" si="5"/>
+        <v>0.62914516141403543</v>
+      </c>
+    </row>
+    <row r="50" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB50" s="1">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="BC50">
+        <f t="shared" si="4"/>
+        <v>0.96614935424426762</v>
+      </c>
+      <c r="BE50">
+        <f t="shared" si="5"/>
+        <v>0.64107696118534641</v>
+      </c>
+    </row>
+    <row r="51" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB51" s="1">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="BC51">
+        <f t="shared" si="4"/>
+        <v>0.97193984985815707</v>
+      </c>
+      <c r="BE51">
+        <f t="shared" si="5"/>
+        <v>0.65270670596198999</v>
+      </c>
+    </row>
+    <row r="52" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB52" s="1">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="BC52">
+        <f t="shared" si="4"/>
+        <v>0.97712220652813597</v>
+      </c>
+      <c r="BE52">
+        <f t="shared" si="5"/>
+        <v>0.66403677026784891</v>
+      </c>
+    </row>
+    <row r="53" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB53" s="1">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="BC53">
+        <f t="shared" si="4"/>
+        <v>0.98171823775988432</v>
+      </c>
+      <c r="BE53">
+        <f t="shared" si="5"/>
+        <v>0.67506987483860781</v>
+      </c>
+    </row>
+    <row r="54" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB54" s="1">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="BC54">
+        <f t="shared" si="4"/>
+        <v>0.98574913163312061</v>
+      </c>
+      <c r="BE54">
+        <f t="shared" si="5"/>
+        <v>0.68580906222909455</v>
+      </c>
+    </row>
+    <row r="55" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB55" s="1">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="BC55">
+        <f t="shared" si="4"/>
+        <v>0.98923546701721554</v>
+      </c>
+      <c r="BE55">
+        <f t="shared" si="5"/>
+        <v>0.69625767268668137</v>
+      </c>
+    </row>
+    <row r="56" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB56" s="1">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="BC56">
+        <f t="shared" si="4"/>
+        <v>0.99219722938985067</v>
+      </c>
+      <c r="BE56">
+        <f t="shared" si="5"/>
+        <v>0.70641932039723521</v>
+      </c>
+    </row>
+    <row r="57" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB57" s="1">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="BC57">
+        <f t="shared" si="4"/>
+        <v>0.99465382626808274</v>
+      </c>
+      <c r="BE57">
+        <f t="shared" si="5"/>
+        <v>0.71629787019902458</v>
+      </c>
+    </row>
+    <row r="58" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB58" s="1">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="BC58">
+        <f t="shared" si="4"/>
+        <v>0.99662410226096176</v>
+      </c>
+      <c r="BE58">
+        <f t="shared" si="5"/>
+        <v>0.72589741484908077</v>
+      </c>
+    </row>
+    <row r="59" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB59" s="1">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="BC59">
+        <f t="shared" si="4"/>
+        <v>0.99812635375263803</v>
+      </c>
+      <c r="BE59">
+        <f t="shared" si="5"/>
+        <v>0.73522225291586907</v>
+      </c>
+    </row>
+    <row r="60" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB60" s="1">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="BC60">
+        <f t="shared" si="4"/>
+        <v>0.99917834322469268</v>
+      </c>
+      <c r="BE60">
+        <f t="shared" si="5"/>
+        <v>0.74427686736183729</v>
+      </c>
+    </row>
+    <row r="61" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB61" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="BC61">
+        <f t="shared" si="4"/>
+        <v>0.99979731322622067</v>
+      </c>
+      <c r="BE61">
+        <f t="shared" si="5"/>
+        <v>0.75306590486955205</v>
+      </c>
+    </row>
+    <row r="62" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB62" s="1">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="BC62">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BE62">
+        <f t="shared" si="5"/>
+        <v>0.76159415595576485</v>
+      </c>
+    </row>
+    <row r="63" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB63" s="1">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="BC63">
+        <f t="shared" si="4"/>
+        <v>0.99980264677289032</v>
+      </c>
+      <c r="BE63">
+        <f t="shared" si="5"/>
+        <v>0.76986653590890031</v>
+      </c>
+    </row>
+    <row r="64" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB64" s="1">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="BC64">
+        <f t="shared" si="4"/>
+        <v>0.99922101671841612</v>
+      </c>
+      <c r="BE64">
+        <f t="shared" si="5"/>
+        <v>0.77788806657718479</v>
+      </c>
+    </row>
+    <row r="65" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB65" s="1">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="BC65">
+        <f t="shared" si="4"/>
+        <v>0.99827040559930358</v>
+      </c>
+      <c r="BE65">
+        <f t="shared" si="5"/>
+        <v>0.78566385902694369</v>
+      </c>
+    </row>
+    <row r="66" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB66" s="1">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="BC66">
+        <f t="shared" si="4"/>
+        <v>0.99696565409756666</v>
+      </c>
+      <c r="BE66">
+        <f t="shared" si="5"/>
+        <v>0.79319909708350078</v>
+      </c>
+    </row>
+    <row r="67" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB67" s="1">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="BC67">
+        <f t="shared" si="4"/>
+        <v>0.9953211598395556</v>
+      </c>
+      <c r="BE67">
+        <f t="shared" si="5"/>
+        <v>0.8004990217606297</v>
+      </c>
+    </row>
+    <row r="68" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB68" s="1">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="BC68">
+        <f t="shared" si="4"/>
+        <v>0.99335088912321634</v>
+      </c>
+      <c r="BE68">
+        <f t="shared" si="5"/>
+        <v>0.8075689165786144</v>
+      </c>
+    </row>
+    <row r="69" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB69" s="1">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="BC69">
+        <f t="shared" si="4"/>
+        <v>0.99106838835463862</v>
+      </c>
+      <c r="BE69">
+        <f t="shared" si="5"/>
+        <v>0.81441409376568585</v>
+      </c>
+    </row>
+    <row r="70" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB70" s="1">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="BC70">
+        <f t="shared" si="4"/>
+        <v>0.98848679520080518</v>
+      </c>
+      <c r="BE70">
+        <f t="shared" si="5"/>
+        <v>0.82103988133287698</v>
+      </c>
+    </row>
+    <row r="71" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB71" s="1">
+        <f t="shared" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="BC71">
+        <f t="shared" si="4"/>
+        <v>0.98561884946530109</v>
+      </c>
+      <c r="BE71">
+        <f t="shared" si="5"/>
+        <v>0.82745161100816667</v>
+      </c>
+    </row>
+    <row r="72" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB72" s="1">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="BC72">
+        <f t="shared" si="4"/>
+        <v>0.98247690369357832</v>
+      </c>
+      <c r="BE72">
+        <f t="shared" si="5"/>
+        <v>0.83365460701215521</v>
+      </c>
+    </row>
+    <row r="73" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB73" s="1">
+        <f t="shared" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="BC73">
+        <f t="shared" si="4"/>
+        <v>0.97907293351422375</v>
+      </c>
+      <c r="BE73">
+        <f t="shared" si="5"/>
+        <v>0.83965417565437528</v>
+      </c>
+    </row>
+    <row r="74" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB74" s="1">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="BC74">
+        <f t="shared" si="4"/>
+        <v>0.97541854772252634</v>
+      </c>
+      <c r="BE74">
+        <f t="shared" si="5"/>
+        <v>0.84545559572668028</v>
+      </c>
+    </row>
+    <row r="75" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB75" s="1">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="BC75">
+        <f t="shared" si="4"/>
+        <v>0.97152499811249349</v>
+      </c>
+      <c r="BE75">
+        <f t="shared" si="5"/>
+        <v>0.85106410966794399</v>
+      </c>
+    </row>
+    <row r="76" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB76" s="1">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="BC76">
+        <f t="shared" si="4"/>
+        <v>0.96740318906332867</v>
+      </c>
+      <c r="BE76">
+        <f t="shared" si="5"/>
+        <v>0.85648491547249728</v>
+      </c>
+    </row>
+    <row r="77" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB77" s="1">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="BC77">
+        <f t="shared" ref="BC77:BC140" si="7">BB77/$BA$13*EXP(1-BB77/$BA$13)</f>
+        <v>0.96306368688623323</v>
+      </c>
+      <c r="BE77">
+        <f t="shared" ref="BE77:BE140" si="8">TANH(BB77/$BA$13)</f>
+        <v>0.86172315931330645</v>
+      </c>
+    </row>
+    <row r="78" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB78" s="1">
+        <f t="shared" ref="BB78:BB141" si="9">BB77+1</f>
+        <v>66</v>
+      </c>
+      <c r="BC78">
+        <f t="shared" si="7"/>
+        <v>0.95851672893727191</v>
+      </c>
+      <c r="BE78">
+        <f t="shared" si="8"/>
+        <v>0.8667839288498187</v>
+      </c>
+    </row>
+    <row r="79" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB79" s="1">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="BC79">
+        <f t="shared" si="7"/>
+        <v>0.95377223250189702</v>
+      </c>
+      <c r="BE79">
+        <f t="shared" si="8"/>
+        <v>0.87167224718965208</v>
+      </c>
+    </row>
+    <row r="80" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB80" s="1">
+        <f t="shared" si="9"/>
+        <v>68</v>
+      </c>
+      <c r="BC80">
+        <f t="shared" si="7"/>
+        <v>0.94883980345660224</v>
+      </c>
+      <c r="BE80">
+        <f t="shared" si="8"/>
+        <v>0.87639306747282286</v>
+      </c>
+    </row>
+    <row r="81" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB81" s="1">
+        <f t="shared" si="9"/>
+        <v>69</v>
+      </c>
+      <c r="BC81">
+        <f t="shared" si="7"/>
+        <v>0.94372874471305113</v>
+      </c>
+      <c r="BE81">
+        <f t="shared" si="8"/>
+        <v>0.88095126804699697</v>
+      </c>
+    </row>
+    <row r="82" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB82" s="1">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="BC82">
+        <f t="shared" si="7"/>
+        <v>0.93844806444989504</v>
+      </c>
+      <c r="BE82">
+        <f t="shared" si="8"/>
+        <v>0.88535164820226242</v>
+      </c>
+    </row>
+    <row r="83" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB83" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="BC83">
+        <f t="shared" si="7"/>
+        <v>0.93300648413738074</v>
+      </c>
+      <c r="BE83">
+        <f t="shared" si="8"/>
+        <v>0.88959892443413136</v>
+      </c>
+    </row>
+    <row r="84" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB84" s="1">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="BC84">
+        <f t="shared" si="7"/>
+        <v>0.92741244635972364</v>
+      </c>
+      <c r="BE84">
+        <f t="shared" si="8"/>
+        <v>0.89369772720387253</v>
+      </c>
+    </row>
+    <row r="85" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB85" s="1">
+        <f t="shared" si="9"/>
+        <v>73</v>
+      </c>
+      <c r="BC85">
+        <f t="shared" si="7"/>
+        <v>0.92167412244011182</v>
+      </c>
+      <c r="BE85">
+        <f t="shared" si="8"/>
+        <v>0.89765259816581688</v>
+      </c>
+    </row>
+    <row r="86" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB86" s="1">
+        <f t="shared" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="BC86">
+        <f t="shared" si="7"/>
+        <v>0.91579941987308844</v>
+      </c>
+      <c r="BE86">
+        <f t="shared" si="8"/>
+        <v>0.9014679878319467</v>
+      </c>
+    </row>
+    <row r="87" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB87" s="1">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="BC87">
+        <f t="shared" si="7"/>
+        <v>0.90979598956895014</v>
+      </c>
+      <c r="BE87">
+        <f t="shared" si="8"/>
+        <v>0.9051482536448664</v>
+      </c>
+    </row>
+    <row r="88" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB88" s="1">
+        <f t="shared" si="9"/>
+        <v>76</v>
+      </c>
+      <c r="BC88">
+        <f t="shared" si="7"/>
+        <v>0.90367123291469542</v>
+      </c>
+      <c r="BE88">
+        <f t="shared" si="8"/>
+        <v>0.90869765843111261</v>
+      </c>
+    </row>
+    <row r="89" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB89" s="1">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="BC89">
+        <f t="shared" si="7"/>
+        <v>0.89743230865594403</v>
+      </c>
+      <c r="BE89">
+        <f t="shared" si="8"/>
+        <v>0.91212036920771722</v>
+      </c>
+    </row>
+    <row r="90" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB90" s="1">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+      <c r="BC90">
+        <f t="shared" si="7"/>
+        <v>0.89108613960415117</v>
+      </c>
+      <c r="BE90">
+        <f t="shared" si="8"/>
+        <v>0.91542045631593238</v>
+      </c>
+    </row>
+    <row r="91" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB91" s="1">
+        <f t="shared" si="9"/>
+        <v>79</v>
+      </c>
+      <c r="BC91">
+        <f t="shared" si="7"/>
+        <v>0.88463941917333522</v>
+      </c>
+      <c r="BE91">
+        <f t="shared" si="8"/>
+        <v>0.91860189285706695</v>
+      </c>
+    </row>
+    <row r="92" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB92" s="1">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="BC92">
+        <f t="shared" si="7"/>
+        <v>0.87809861775044229</v>
+      </c>
+      <c r="BE92">
+        <f t="shared" si="8"/>
+        <v>0.92166855440647122</v>
+      </c>
+    </row>
+    <row r="93" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB93" s="1">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="BC93">
+        <f t="shared" si="7"/>
+        <v>0.87146998890337268</v>
+      </c>
+      <c r="BE93">
+        <f t="shared" si="8"/>
+        <v>0.92462421898278824</v>
+      </c>
+    </row>
+    <row r="94" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB94" s="1">
+        <f t="shared" si="9"/>
+        <v>82</v>
+      </c>
+      <c r="BC94">
+        <f t="shared" si="7"/>
+        <v>0.86475957543059978</v>
+      </c>
+      <c r="BE94">
+        <f t="shared" si="8"/>
+        <v>0.92747256725070348</v>
+      </c>
+    </row>
+    <row r="95" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB95" s="1">
+        <f t="shared" si="9"/>
+        <v>83</v>
+      </c>
+      <c r="BC95">
+        <f t="shared" si="7"/>
+        <v>0.85797321525622072</v>
+      </c>
+      <c r="BE95">
+        <f t="shared" si="8"/>
+        <v>0.93021718293652611</v>
+      </c>
+    </row>
+    <row r="96" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB96" s="1">
+        <f t="shared" si="9"/>
+        <v>84</v>
+      </c>
+      <c r="BC96">
+        <f t="shared" si="7"/>
+        <v>0.85111654717419061</v>
+      </c>
+      <c r="BE96">
+        <f t="shared" si="8"/>
+        <v>0.93286155343703503</v>
+      </c>
+    </row>
+    <row r="97" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB97" s="1">
+        <f t="shared" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="BC97">
+        <f t="shared" si="7"/>
+        <v>0.84419501644539618</v>
+      </c>
+      <c r="BE97">
+        <f t="shared" si="8"/>
+        <v>0.93540907060309908</v>
+      </c>
+    </row>
+    <row r="98" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB98" s="1">
+        <f t="shared" si="9"/>
+        <v>86</v>
+      </c>
+      <c r="BC98">
+        <f t="shared" si="7"/>
+        <v>0.83721388025115129</v>
+      </c>
+      <c r="BE98">
+        <f t="shared" si="8"/>
+        <v>0.93786303168066509</v>
+      </c>
+    </row>
+    <row r="99" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB99" s="1">
+        <f t="shared" si="9"/>
+        <v>87</v>
+      </c>
+      <c r="BC99">
+        <f t="shared" si="7"/>
+        <v>0.83017821300659977</v>
+      </c>
+      <c r="BE99">
+        <f t="shared" si="8"/>
+        <v>0.94022664039272752</v>
+      </c>
+    </row>
+    <row r="100" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB100" s="1">
+        <f t="shared" si="9"/>
+        <v>88</v>
+      </c>
+      <c r="BC100">
+        <f t="shared" si="7"/>
+        <v>0.82309291153744024</v>
+      </c>
+      <c r="BE100">
+        <f t="shared" si="8"/>
+        <v>0.9425030081469199</v>
+      </c>
+    </row>
+    <row r="101" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB101" s="1">
+        <f t="shared" si="9"/>
+        <v>89</v>
+      </c>
+      <c r="BC101">
+        <f t="shared" si="7"/>
+        <v>0.81596270012329786</v>
+      </c>
+      <c r="BE101">
+        <f t="shared" si="8"/>
+        <v>0.94469515535435389</v>
+      </c>
+    </row>
+    <row r="102" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB102" s="1">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="BC102">
+        <f t="shared" si="7"/>
+        <v>0.80879213541099881</v>
+      </c>
+      <c r="BE102">
+        <f t="shared" si="8"/>
+        <v>0.9468060128462682</v>
+      </c>
+    </row>
+    <row r="103" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB103" s="1">
+        <f t="shared" si="9"/>
+        <v>91</v>
+      </c>
+      <c r="BC103">
+        <f t="shared" si="7"/>
+        <v>0.80158561120091865</v>
+      </c>
+      <c r="BE103">
+        <f t="shared" si="8"/>
+        <v>0.94883842337598456</v>
+      </c>
+    </row>
+    <row r="104" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB104" s="1">
+        <f t="shared" si="9"/>
+        <v>92</v>
+      </c>
+      <c r="BC104">
+        <f t="shared" si="7"/>
+        <v>0.7943473631095066</v>
+      </c>
+      <c r="BE104">
+        <f t="shared" si="8"/>
+        <v>0.95079514319452119</v>
+      </c>
+    </row>
+    <row r="105" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB105" s="1">
+        <f t="shared" si="9"/>
+        <v>93</v>
+      </c>
+      <c r="BC105">
+        <f t="shared" si="7"/>
+        <v>0.78708147311101273</v>
+      </c>
+      <c r="BE105">
+        <f t="shared" si="8"/>
+        <v>0.95267884368907774</v>
+      </c>
+    </row>
+    <row r="106" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB106" s="1">
+        <f t="shared" si="9"/>
+        <v>94</v>
+      </c>
+      <c r="BC106">
+        <f t="shared" si="7"/>
+        <v>0.77979187396137306</v>
+      </c>
+      <c r="BE106">
+        <f t="shared" si="8"/>
+        <v>0.95449211307439197</v>
+      </c>
+    </row>
+    <row r="107" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB107" s="1">
+        <f t="shared" si="9"/>
+        <v>95</v>
+      </c>
+      <c r="BC107">
+        <f t="shared" si="7"/>
+        <v>0.77248235350713834</v>
+      </c>
+      <c r="BE107">
+        <f t="shared" si="8"/>
+        <v>0.95623745812773897</v>
+      </c>
+    </row>
+    <row r="108" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB108" s="1">
+        <f t="shared" si="9"/>
+        <v>96</v>
+      </c>
+      <c r="BC108">
+        <f t="shared" si="7"/>
+        <v>0.76515655888226719</v>
+      </c>
+      <c r="BE108">
+        <f t="shared" si="8"/>
+        <v>0.95791730595906355</v>
+      </c>
+    </row>
+    <row r="109" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB109" s="1">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="BC109">
+        <f t="shared" si="7"/>
+        <v>0.75781800059553095</v>
+      </c>
+      <c r="BE109">
+        <f t="shared" si="8"/>
+        <v>0.95953400580842918</v>
+      </c>
+    </row>
+    <row r="110" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB110" s="1">
+        <f t="shared" si="9"/>
+        <v>98</v>
+      </c>
+      <c r="BC110">
+        <f t="shared" si="7"/>
+        <v>0.75047005651121967</v>
+      </c>
+      <c r="BE110">
+        <f t="shared" si="8"/>
+        <v>0.96108983086361388</v>
+      </c>
+    </row>
+    <row r="111" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB111" s="1">
+        <f t="shared" si="9"/>
+        <v>99</v>
+      </c>
+      <c r="BC111">
+        <f t="shared" si="7"/>
+        <v>0.74311597572577115</v>
+      </c>
+      <c r="BE111">
+        <f t="shared" si="8"/>
+        <v>0.96258698009129084</v>
+      </c>
+    </row>
+    <row r="112" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB112" s="1">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="BC112">
+        <f t="shared" si="7"/>
+        <v>0.73575888234288467</v>
+      </c>
+      <c r="BE112">
+        <f t="shared" si="8"/>
+        <v>0.96402758007581701</v>
+      </c>
+    </row>
+    <row r="113" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB113" s="1">
+        <f t="shared" si="9"/>
+        <v>101</v>
+      </c>
+      <c r="BC113">
+        <f t="shared" si="7"/>
+        <v>0.72840177914961823</v>
+      </c>
+      <c r="BE113">
+        <f t="shared" si="8"/>
+        <v>0.96541368686018914</v>
+      </c>
+    </row>
+    <row r="114" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB114" s="1">
+        <f t="shared" si="9"/>
+        <v>102</v>
+      </c>
+      <c r="BC114">
+        <f t="shared" si="7"/>
+        <v>0.72104755119591157</v>
+      </c>
+      <c r="BE114">
+        <f t="shared" si="8"/>
+        <v>0.9667472877842368</v>
+      </c>
+    </row>
+    <row r="115" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB115" s="1">
+        <f t="shared" si="9"/>
+        <v>103</v>
+      </c>
+      <c r="BC115">
+        <f t="shared" si="7"/>
+        <v>0.71369896927991827</v>
+      </c>
+      <c r="BE115">
+        <f t="shared" si="8"/>
+        <v>0.96803030331559492</v>
+      </c>
+    </row>
+    <row r="116" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB116" s="1">
+        <f t="shared" si="9"/>
+        <v>104</v>
+      </c>
+      <c r="BC116">
+        <f t="shared" si="7"/>
+        <v>0.70635869334147339</v>
+      </c>
+      <c r="BE116">
+        <f t="shared" si="8"/>
+        <v>0.96926458886944888</v>
+      </c>
+    </row>
+    <row r="117" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB117" s="1">
+        <f t="shared" si="9"/>
+        <v>105</v>
+      </c>
+      <c r="BC117">
+        <f t="shared" si="7"/>
+        <v>0.69902927576596707</v>
+      </c>
+      <c r="BE117">
+        <f t="shared" si="8"/>
+        <v>0.97045193661345408</v>
+      </c>
+    </row>
+    <row r="118" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB118" s="1">
+        <f t="shared" si="9"/>
+        <v>106</v>
+      </c>
+      <c r="BC118">
+        <f t="shared" si="7"/>
+        <v>0.69171316460084376</v>
+      </c>
+      <c r="BE118">
+        <f t="shared" si="8"/>
+        <v>0.97159407725461766</v>
+      </c>
+    </row>
+    <row r="119" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB119" s="1">
+        <f t="shared" si="9"/>
+        <v>107</v>
+      </c>
+      <c r="BC119">
+        <f t="shared" si="7"/>
+        <v>0.68441270668689025</v>
+      </c>
+      <c r="BE119">
+        <f t="shared" si="8"/>
+        <v>0.97269268180529833</v>
+      </c>
+    </row>
+    <row r="120" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB120" s="1">
+        <f t="shared" si="9"/>
+        <v>108</v>
+      </c>
+      <c r="BC120">
+        <f t="shared" si="7"/>
+        <v>0.67713015070642746</v>
+      </c>
+      <c r="BE120">
+        <f t="shared" si="8"/>
+        <v>0.97374936332579454</v>
+      </c>
+    </row>
+    <row r="121" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB121" s="1">
+        <f t="shared" si="9"/>
+        <v>109</v>
+      </c>
+      <c r="BC121">
+        <f t="shared" si="7"/>
+        <v>0.66986765015046601</v>
+      </c>
+      <c r="BE121">
+        <f t="shared" si="8"/>
+        <v>0.97476567864132269</v>
+      </c>
+    </row>
+    <row r="122" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB122" s="1">
+        <f t="shared" si="9"/>
+        <v>110</v>
+      </c>
+      <c r="BC122">
+        <f t="shared" si="7"/>
+        <v>0.66262726620684453</v>
+      </c>
+      <c r="BE122">
+        <f t="shared" si="8"/>
+        <v>0.97574313003145152</v>
+      </c>
+    </row>
+    <row r="123" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB123" s="1">
+        <f t="shared" si="9"/>
+        <v>111</v>
+      </c>
+      <c r="BC123">
+        <f t="shared" si="7"/>
+        <v>0.65541097057131148</v>
+      </c>
+      <c r="BE123">
+        <f t="shared" si="8"/>
+        <v>0.97668316689033396</v>
+      </c>
+    </row>
+    <row r="124" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB124" s="1">
+        <f t="shared" si="9"/>
+        <v>112</v>
+      </c>
+      <c r="BC124">
+        <f t="shared" si="7"/>
+        <v>0.64822064818347336</v>
+      </c>
+      <c r="BE124">
+        <f t="shared" si="8"/>
+        <v>0.97758718735631422</v>
+      </c>
+    </row>
+    <row r="125" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB125" s="1">
+        <f t="shared" si="9"/>
+        <v>113</v>
+      </c>
+      <c r="BC125">
+        <f t="shared" si="7"/>
+        <v>0.64105809988948115</v>
+      </c>
+      <c r="BE125">
+        <f t="shared" si="8"/>
+        <v>0.97845653990971682</v>
+      </c>
+    </row>
+    <row r="126" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB126" s="1">
+        <f t="shared" si="9"/>
+        <v>114</v>
+      </c>
+      <c r="BC126">
+        <f t="shared" si="7"/>
+        <v>0.63392504503328273</v>
+      </c>
+      <c r="BE126">
+        <f t="shared" si="8"/>
+        <v>0.97929252493781638</v>
+      </c>
+    </row>
+    <row r="127" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB127" s="1">
+        <f t="shared" si="9"/>
+        <v>115</v>
+      </c>
+      <c r="BC127">
+        <f t="shared" si="7"/>
+        <v>0.62682312397822904</v>
+      </c>
+      <c r="BE127">
+        <f t="shared" si="8"/>
+        <v>0.98009639626619138</v>
+      </c>
+    </row>
+    <row r="128" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB128" s="1">
+        <f t="shared" si="9"/>
+        <v>116</v>
+      </c>
+      <c r="BC128">
+        <f t="shared" si="7"/>
+        <v>0.61975390056077284</v>
+      </c>
+      <c r="BE128">
+        <f t="shared" si="8"/>
+        <v>0.98086936265581648</v>
+      </c>
+    </row>
+    <row r="129" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB129" s="1">
+        <f t="shared" si="9"/>
+        <v>117</v>
+      </c>
+      <c r="BC129">
+        <f t="shared" si="7"/>
+        <v>0.61271886447796287</v>
+      </c>
+      <c r="BE129">
+        <f t="shared" si="8"/>
+        <v>0.98161258926542383</v>
+      </c>
+    </row>
+    <row r="130" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB130" s="1">
+        <f t="shared" si="9"/>
+        <v>118</v>
+      </c>
+      <c r="BC130">
+        <f t="shared" si="7"/>
+        <v>0.60571943361039193</v>
+      </c>
+      <c r="BE130">
+        <f t="shared" si="8"/>
+        <v>0.98232719907878463</v>
+      </c>
+    </row>
+    <row r="131" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB131" s="1">
+        <f t="shared" si="9"/>
+        <v>119</v>
+      </c>
+      <c r="BC131">
+        <f t="shared" si="7"/>
+        <v>0.59875695628222048</v>
+      </c>
+      <c r="BE131">
+        <f t="shared" si="8"/>
+        <v>0.9830142742967114</v>
+      </c>
+    </row>
+    <row r="132" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB132" s="1">
+        <f t="shared" si="9"/>
+        <v>120</v>
+      </c>
+      <c r="BC132">
+        <f t="shared" si="7"/>
+        <v>0.59183271345985555</v>
+      </c>
+      <c r="BE132">
+        <f t="shared" si="8"/>
+        <v>0.98367485769368002</v>
+      </c>
+    </row>
+    <row r="133" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB133" s="1">
+        <f t="shared" si="9"/>
+        <v>121</v>
+      </c>
+      <c r="BC133">
+        <f t="shared" si="7"/>
+        <v>0.58494792089082814</v>
+      </c>
+      <c r="BE133">
+        <f t="shared" si="8"/>
+        <v>0.98430995393908882</v>
+      </c>
+    </row>
+    <row r="134" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB134" s="1">
+        <f t="shared" si="9"/>
+        <v>122</v>
+      </c>
+      <c r="BC134">
+        <f t="shared" si="7"/>
+        <v>0.57810373118437708</v>
+      </c>
+      <c r="BE134">
+        <f t="shared" si="8"/>
+        <v>0.98492053088325326</v>
+      </c>
+    </row>
+    <row r="135" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB135" s="1">
+        <f t="shared" si="9"/>
+        <v>123</v>
+      </c>
+      <c r="BC135">
+        <f t="shared" si="7"/>
+        <v>0.57130123583520676</v>
+      </c>
+      <c r="BE135">
+        <f t="shared" si="8"/>
+        <v>0.98550752080833703</v>
+      </c>
+    </row>
+    <row r="136" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB136" s="1">
+        <f t="shared" si="9"/>
+        <v>124</v>
+      </c>
+      <c r="BC136">
+        <f t="shared" si="7"/>
+        <v>0.56454146719185561</v>
+      </c>
+      <c r="BE136">
+        <f t="shared" si="8"/>
+        <v>0.98607182164447582</v>
+      </c>
+    </row>
+    <row r="137" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB137" s="1">
+        <f t="shared" si="9"/>
+        <v>125</v>
+      </c>
+      <c r="BC137">
+        <f t="shared" si="7"/>
+        <v>0.55782540037107453</v>
+      </c>
+      <c r="BE137">
+        <f t="shared" si="8"/>
+        <v>0.98661429815143042</v>
+      </c>
+    </row>
+    <row r="138" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB138" s="1">
+        <f t="shared" si="9"/>
+        <v>126</v>
+      </c>
+      <c r="BC138">
+        <f t="shared" si="7"/>
+        <v>0.55115395511958121</v>
+      </c>
+      <c r="BE138">
+        <f t="shared" si="8"/>
+        <v>0.98713578306616279</v>
+      </c>
+    </row>
+    <row r="139" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB139" s="1">
+        <f t="shared" si="9"/>
+        <v>127</v>
+      </c>
+      <c r="BC139">
+        <f t="shared" si="7"/>
+        <v>0.54452799762452397</v>
+      </c>
+      <c r="BE139">
+        <f t="shared" si="8"/>
+        <v>0.98763707821677771</v>
+      </c>
+    </row>
+    <row r="140" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB140" s="1">
+        <f t="shared" si="9"/>
+        <v>128</v>
+      </c>
+      <c r="BC140">
+        <f t="shared" si="7"/>
+        <v>0.53794834227395771</v>
+      </c>
+      <c r="BE140">
+        <f t="shared" si="8"/>
+        <v>0.9881189556033193</v>
+      </c>
+    </row>
+    <row r="141" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB141" s="1">
+        <f t="shared" si="9"/>
+        <v>129</v>
+      </c>
+      <c r="BC141">
+        <f t="shared" ref="BC141:BC204" si="10">BB141/$BA$13*EXP(1-BB141/$BA$13)</f>
+        <v>0.53141575336859925</v>
+      </c>
+      <c r="BE141">
+        <f t="shared" ref="BE141:BE204" si="11">TANH(BB141/$BA$13)</f>
+        <v>0.98858215844595332</v>
+      </c>
+    </row>
+    <row r="142" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB142" s="1">
+        <f t="shared" ref="BB142:BB205" si="12">BB141+1</f>
+        <v>130</v>
+      </c>
+      <c r="BC142">
+        <f t="shared" si="10"/>
+        <v>0.52493094678610397</v>
+      </c>
+      <c r="BE142">
+        <f t="shared" si="11"/>
+        <v>0.9890274022010993</v>
+      </c>
+    </row>
+    <row r="143" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB143" s="1">
+        <f t="shared" si="12"/>
+        <v>131</v>
+      </c>
+      <c r="BC143">
+        <f t="shared" si="10"/>
+        <v>0.51849459159907041</v>
+      </c>
+      <c r="BE143">
+        <f t="shared" si="11"/>
+        <v>0.98945537554610263</v>
+      </c>
+    </row>
+    <row r="144" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB144" s="1">
+        <f t="shared" si="12"/>
+        <v>132</v>
+      </c>
+      <c r="BC144">
+        <f t="shared" si="10"/>
+        <v>0.51210731164795464</v>
+      </c>
+      <c r="BE144">
+        <f t="shared" si="11"/>
+        <v>0.98986674133306751</v>
+      </c>
+    </row>
+    <row r="145" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB145" s="1">
+        <f t="shared" si="12"/>
+        <v>133</v>
+      </c>
+      <c r="BC145">
+        <f t="shared" si="10"/>
+        <v>0.50576968707004455</v>
+      </c>
+      <c r="BE145">
+        <f t="shared" si="11"/>
+        <v>0.99026213751248282</v>
+      </c>
+    </row>
+    <row r="146" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB146" s="1">
+        <f t="shared" si="12"/>
+        <v>134</v>
+      </c>
+      <c r="BC146">
+        <f t="shared" si="10"/>
+        <v>0.49948225578561867</v>
+      </c>
+      <c r="BE146">
+        <f t="shared" si="11"/>
+        <v>0.99064217802729859</v>
+      </c>
+    </row>
+    <row r="147" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB147" s="1">
+        <f t="shared" si="12"/>
+        <v>135</v>
+      </c>
+      <c r="BC147">
+        <f t="shared" si="10"/>
+        <v>0.4932455149423835</v>
+      </c>
+      <c r="BE147">
+        <f t="shared" si="11"/>
+        <v>0.99100745367811749</v>
+      </c>
+    </row>
+    <row r="148" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB148" s="1">
+        <f t="shared" si="12"/>
+        <v>136</v>
+      </c>
+      <c r="BC148">
+        <f t="shared" si="10"/>
+        <v>0.48705992231926154</v>
+      </c>
+      <c r="BE148">
+        <f t="shared" si="11"/>
+        <v>0.99135853296017618</v>
+      </c>
+    </row>
+    <row r="149" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB149" s="1">
+        <f t="shared" si="12"/>
+        <v>137</v>
+      </c>
+      <c r="BC149">
+        <f t="shared" si="10"/>
+        <v>0.48092589769057137</v>
+      </c>
+      <c r="BE149">
+        <f t="shared" si="11"/>
+        <v>0.99169596287279871</v>
+      </c>
+    </row>
+    <row r="150" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB150" s="1">
+        <f t="shared" si="12"/>
+        <v>138</v>
+      </c>
+      <c r="BC150">
+        <f t="shared" si="10"/>
+        <v>0.47484382415161952</v>
+      </c>
+      <c r="BE150">
+        <f t="shared" si="11"/>
+        <v>0.99202026970201185</v>
+      </c>
+    </row>
+    <row r="151" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB151" s="1">
+        <f t="shared" si="12"/>
+        <v>139</v>
+      </c>
+      <c r="BC151">
+        <f t="shared" si="10"/>
+        <v>0.46881404940669558</v>
+      </c>
+      <c r="BE151">
+        <f t="shared" si="11"/>
+        <v>0.99233195977700506</v>
+      </c>
+    </row>
+    <row r="152" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB152" s="1">
+        <f t="shared" si="12"/>
+        <v>140</v>
+      </c>
+      <c r="BC152">
+        <f t="shared" si="10"/>
+        <v>0.46283688702044234</v>
+      </c>
+      <c r="BE152">
+        <f t="shared" si="11"/>
+        <v>0.99263152020112788</v>
+      </c>
+    </row>
+    <row r="153" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB153" s="1">
+        <f t="shared" si="12"/>
+        <v>141</v>
+      </c>
+      <c r="BC153">
+        <f t="shared" si="10"/>
+        <v>0.45691261763354385</v>
+      </c>
+      <c r="BE153">
+        <f t="shared" si="11"/>
+        <v>0.99291941955810714</v>
+      </c>
+    </row>
+    <row r="154" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB154" s="1">
+        <f t="shared" si="12"/>
+        <v>142</v>
+      </c>
+      <c r="BC154">
+        <f t="shared" si="10"/>
+        <v>0.4510414901436548</v>
+      </c>
+      <c r="BE154">
+        <f t="shared" si="11"/>
+        <v>0.99319610859416563</v>
+      </c>
+    </row>
+    <row r="155" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB155" s="1">
+        <f t="shared" si="12"/>
+        <v>143</v>
+      </c>
+      <c r="BC155">
+        <f t="shared" si="10"/>
+        <v>0.44522372285247236</v>
+      </c>
+      <c r="BE155">
+        <f t="shared" si="11"/>
+        <v>0.99346202087672264</v>
+      </c>
+    </row>
+    <row r="156" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB156" s="1">
+        <f t="shared" si="12"/>
+        <v>144</v>
+      </c>
+      <c r="BC156">
+        <f t="shared" si="10"/>
+        <v>0.43945950457982558</v>
+      </c>
+      <c r="BE156">
+        <f t="shared" si="11"/>
+        <v>0.99371757343034117</v>
+      </c>
+    </row>
+    <row r="157" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB157" s="1">
+        <f t="shared" si="12"/>
+        <v>145</v>
+      </c>
+      <c r="BC157">
+        <f t="shared" si="10"/>
+        <v>0.43374899574564169</v>
+      </c>
+      <c r="BE157">
+        <f t="shared" si="11"/>
+        <v>0.99396316735058299</v>
+      </c>
+    </row>
+    <row r="158" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB158" s="1">
+        <f t="shared" si="12"/>
+        <v>146</v>
+      </c>
+      <c r="BC158">
+        <f t="shared" si="10"/>
+        <v>0.42809232942062242</v>
+      </c>
+      <c r="BE158">
+        <f t="shared" si="11"/>
+        <v>0.9941991883964314</v>
+      </c>
+    </row>
+    <row r="159" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB159" s="1">
+        <f t="shared" si="12"/>
+        <v>147</v>
+      </c>
+      <c r="BC159">
+        <f t="shared" si="10"/>
+        <v>0.42248961234644661</v>
+      </c>
+      <c r="BE159">
+        <f t="shared" si="11"/>
+        <v>0.99442600756191546</v>
+      </c>
+    </row>
+    <row r="160" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB160" s="1">
+        <f t="shared" si="12"/>
+        <v>148</v>
+      </c>
+      <c r="BC160">
+        <f t="shared" si="10"/>
+        <v>0.41694092592629323</v>
+      </c>
+      <c r="BE160">
+        <f t="shared" si="11"/>
+        <v>0.99464398162757395</v>
+      </c>
+    </row>
+    <row r="161" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB161" s="1">
+        <f t="shared" si="12"/>
+        <v>149</v>
+      </c>
+      <c r="BC161">
+        <f t="shared" si="10"/>
+        <v>0.41144632718646063</v>
+      </c>
+      <c r="BE161">
+        <f t="shared" si="11"/>
+        <v>0.9948534536923791</v>
+      </c>
+    </row>
+    <row r="162" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB162" s="1">
+        <f t="shared" si="12"/>
+        <v>150</v>
+      </c>
+      <c r="BC162">
+        <f t="shared" si="10"/>
+        <v>0.40600584970983811</v>
+      </c>
+      <c r="BE162">
+        <f t="shared" si="11"/>
+        <v>0.99505475368673058</v>
+      </c>
+    </row>
+    <row r="163" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB163" s="1">
+        <f t="shared" si="12"/>
+        <v>151</v>
+      </c>
+      <c r="BC163">
+        <f t="shared" si="10"/>
+        <v>0.4006195045419676</v>
+      </c>
+      <c r="BE163">
+        <f t="shared" si="11"/>
+        <v>0.99524819886711013</v>
+      </c>
+    </row>
+    <row r="164" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB164" s="1">
+        <f t="shared" si="12"/>
+        <v>152</v>
+      </c>
+      <c r="BC164">
+        <f t="shared" si="10"/>
+        <v>0.39528728107041478</v>
+      </c>
+      <c r="BE164">
+        <f t="shared" si="11"/>
+        <v>0.99543409429299401</v>
+      </c>
+    </row>
+    <row r="165" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB165" s="1">
+        <f t="shared" si="12"/>
+        <v>153</v>
+      </c>
+      <c r="BC165">
+        <f t="shared" si="10"/>
+        <v>0.3900091478781515</v>
+      </c>
+      <c r="BE165">
+        <f t="shared" si="11"/>
+        <v>0.9956127332865824</v>
+      </c>
+    </row>
+    <row r="166" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB166" s="1">
+        <f t="shared" si="12"/>
+        <v>154</v>
+      </c>
+      <c r="BC166">
+        <f t="shared" si="10"/>
+        <v>0.38478505357163384</v>
+      </c>
+      <c r="BE166">
+        <f t="shared" si="11"/>
+        <v>0.99578439787591344</v>
+      </c>
+    </row>
+    <row r="167" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB167" s="1">
+        <f t="shared" si="12"/>
+        <v>155</v>
+      </c>
+      <c r="BC167">
+        <f t="shared" si="10"/>
+        <v>0.37961492758424392</v>
+      </c>
+      <c r="BE167">
+        <f t="shared" si="11"/>
+        <v>0.99594935922190031</v>
+      </c>
+    </row>
+    <row r="168" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB168" s="1">
+        <f t="shared" si="12"/>
+        <v>156</v>
+      </c>
+      <c r="BC168">
+        <f t="shared" si="10"/>
+        <v>0.37449868095574501</v>
+      </c>
+      <c r="BE168">
+        <f t="shared" si="11"/>
+        <v>0.9961078780298287</v>
+      </c>
+    </row>
+    <row r="169" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB169" s="1">
+        <f t="shared" si="12"/>
+        <v>157</v>
+      </c>
+      <c r="BC169">
+        <f t="shared" si="10"/>
+        <v>0.36943620708838665</v>
+      </c>
+      <c r="BE169">
+        <f t="shared" si="11"/>
+        <v>0.9962602049458319</v>
+      </c>
+    </row>
+    <row r="170" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB170" s="1">
+        <f t="shared" si="12"/>
+        <v>158</v>
+      </c>
+      <c r="BC170">
+        <f t="shared" si="10"/>
+        <v>0.36442738248027756</v>
+      </c>
+      <c r="BE170">
+        <f t="shared" si="11"/>
+        <v>0.99640658093884316</v>
+      </c>
+    </row>
+    <row r="171" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB171" s="1">
+        <f t="shared" si="12"/>
+        <v>159</v>
+      </c>
+      <c r="BC171">
+        <f t="shared" si="10"/>
+        <v>0.35947206743663052</v>
+      </c>
+      <c r="BE171">
+        <f t="shared" si="11"/>
+        <v>0.9965472376685256</v>
+      </c>
+    </row>
+    <row r="172" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB172" s="1">
+        <f t="shared" si="12"/>
+        <v>160</v>
+      </c>
+      <c r="BC172">
+        <f t="shared" si="10"/>
+        <v>0.35457010675946843</v>
+      </c>
+      <c r="BE172">
+        <f t="shared" si="11"/>
+        <v>0.99668239783965107</v>
+      </c>
+    </row>
+    <row r="173" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB173" s="1">
+        <f t="shared" si="12"/>
+        <v>161</v>
+      </c>
+      <c r="BC173">
+        <f t="shared" si="10"/>
+        <v>0.34972133041636466</v>
+      </c>
+      <c r="BE173">
+        <f t="shared" si="11"/>
+        <v>0.99681227554339413</v>
+      </c>
+    </row>
+    <row r="174" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB174" s="1">
+        <f t="shared" si="12"/>
+        <v>162</v>
+      </c>
+      <c r="BC174">
+        <f t="shared" si="10"/>
+        <v>0.34492555418877913</v>
+      </c>
+      <c r="BE174">
+        <f t="shared" si="11"/>
+        <v>0.9969370765859934</v>
+      </c>
+    </row>
+    <row r="175" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB175" s="1">
+        <f t="shared" si="12"/>
+        <v>163</v>
+      </c>
+      <c r="BC175">
+        <f t="shared" si="10"/>
+        <v>0.340182580300534</v>
+      </c>
+      <c r="BE175">
+        <f t="shared" si="11"/>
+        <v>0.99705699880522092</v>
+      </c>
+    </row>
+    <row r="176" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB176" s="1">
+        <f t="shared" si="12"/>
+        <v>164</v>
+      </c>
+      <c r="BC176">
+        <f t="shared" si="10"/>
+        <v>0.3354921980269629</v>
+      </c>
+      <c r="BE176">
+        <f t="shared" si="11"/>
+        <v>0.99717223237507857</v>
+      </c>
+    </row>
+    <row r="177" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB177" s="1">
+        <f t="shared" si="12"/>
+        <v>165</v>
+      </c>
+      <c r="BC177">
+        <f t="shared" si="10"/>
+        <v>0.33085418428525237</v>
+      </c>
+      <c r="BE177">
+        <f t="shared" si="11"/>
+        <v>0.99728296009914219</v>
+      </c>
+    </row>
+    <row r="178" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB178" s="1">
+        <f t="shared" si="12"/>
+        <v>166</v>
+      </c>
+      <c r="BC178">
+        <f t="shared" si="10"/>
+        <v>0.32626830420648029</v>
+      </c>
+      <c r="BE178">
+        <f t="shared" si="11"/>
+        <v>0.99738935769294657</v>
+      </c>
+    </row>
+    <row r="179" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB179" s="1">
+        <f t="shared" si="12"/>
+        <v>167</v>
+      </c>
+      <c r="BC179">
+        <f t="shared" si="10"/>
+        <v>0.32173431168984673</v>
+      </c>
+      <c r="BE179">
+        <f t="shared" si="11"/>
+        <v>0.99749159405580634</v>
+      </c>
+    </row>
+    <row r="180" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB180" s="1">
+        <f t="shared" si="12"/>
+        <v>168</v>
+      </c>
+      <c r="BC180">
+        <f t="shared" si="10"/>
+        <v>0.31725194993957589</v>
+      </c>
+      <c r="BE180">
+        <f t="shared" si="11"/>
+        <v>0.99758983153244207</v>
+      </c>
+    </row>
+    <row r="181" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB181" s="1">
+        <f t="shared" si="12"/>
+        <v>169</v>
+      </c>
+      <c r="BC181">
+        <f t="shared" si="10"/>
+        <v>0.31282095198496029</v>
+      </c>
+      <c r="BE181">
+        <f t="shared" si="11"/>
+        <v>0.99768422616478092</v>
+      </c>
+    </row>
+    <row r="182" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB182" s="1">
+        <f t="shared" si="12"/>
+        <v>170</v>
+      </c>
+      <c r="BC182">
+        <f t="shared" si="10"/>
+        <v>0.30844104118400251</v>
+      </c>
+      <c r="BE182">
+        <f t="shared" si="11"/>
+        <v>0.99777492793427935</v>
+      </c>
+    </row>
+    <row r="183" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB183" s="1">
+        <f t="shared" si="12"/>
+        <v>171</v>
+      </c>
+      <c r="BC183">
+        <f t="shared" si="10"/>
+        <v>0.30411193171110129</v>
+      </c>
+      <c r="BE183">
+        <f t="shared" si="11"/>
+        <v>0.9978620809951162</v>
+      </c>
+    </row>
+    <row r="184" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB184" s="1">
+        <f t="shared" si="12"/>
+        <v>172</v>
+      </c>
+      <c r="BC184">
+        <f t="shared" si="10"/>
+        <v>0.29983332902921567</v>
+      </c>
+      <c r="BE184">
+        <f t="shared" si="11"/>
+        <v>0.997945823898577</v>
+      </c>
+    </row>
+    <row r="185" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB185" s="1">
+        <f t="shared" si="12"/>
+        <v>173</v>
+      </c>
+      <c r="BC185">
+        <f t="shared" si="10"/>
+        <v>0.29560493034693147</v>
+      </c>
+      <c r="BE185">
+        <f t="shared" si="11"/>
+        <v>0.99802628980895802</v>
+      </c>
+    </row>
+    <row r="186" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB186" s="1">
+        <f t="shared" si="12"/>
+        <v>174</v>
+      </c>
+      <c r="BC186">
+        <f t="shared" si="10"/>
+        <v>0.29142642506084193</v>
+      </c>
+      <c r="BE186">
+        <f t="shared" si="11"/>
+        <v>0.99810360671129239</v>
+      </c>
+    </row>
+    <row r="187" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB187" s="1">
+        <f t="shared" si="12"/>
+        <v>175</v>
+      </c>
+      <c r="BC187">
+        <f t="shared" si="10"/>
+        <v>0.28729749518364578</v>
+      </c>
+      <c r="BE187">
+        <f t="shared" si="11"/>
+        <v>0.99817789761119868</v>
+      </c>
+    </row>
+    <row r="188" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB188" s="1">
+        <f t="shared" si="12"/>
+        <v>176</v>
+      </c>
+      <c r="BC188">
+        <f t="shared" si="10"/>
+        <v>0.2832178157583542</v>
+      </c>
+      <c r="BE188">
+        <f t="shared" si="11"/>
+        <v>0.9982492807271417</v>
+      </c>
+    </row>
+    <row r="189" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB189" s="1">
+        <f t="shared" si="12"/>
+        <v>177</v>
+      </c>
+      <c r="BC189">
+        <f t="shared" si="10"/>
+        <v>0.27918705525898929</v>
+      </c>
+      <c r="BE189">
+        <f t="shared" si="11"/>
+        <v>0.99831786967538227</v>
+      </c>
+    </row>
+    <row r="190" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB190" s="1">
+        <f t="shared" si="12"/>
+        <v>178</v>
+      </c>
+      <c r="BC190">
+        <f t="shared" si="10"/>
+        <v>0.27520487597814708</v>
+      </c>
+      <c r="BE190">
+        <f t="shared" si="11"/>
+        <v>0.99838377364788755</v>
+      </c>
+    </row>
+    <row r="191" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB191" s="1">
+        <f t="shared" si="12"/>
+        <v>179</v>
+      </c>
+      <c r="BC191">
+        <f t="shared" si="10"/>
+        <v>0.27127093440178685</v>
+      </c>
+      <c r="BE191">
+        <f t="shared" si="11"/>
+        <v>0.99844709758345851</v>
+      </c>
+    </row>
+    <row r="192" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB192" s="1">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="BC192">
+        <f t="shared" si="10"/>
+        <v>0.26738488157160195</v>
+      </c>
+      <c r="BE192">
+        <f t="shared" si="11"/>
+        <v>0.99850794233232665</v>
+      </c>
+    </row>
+    <row r="193" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB193" s="1">
+        <f t="shared" si="12"/>
+        <v>181</v>
+      </c>
+      <c r="BC193">
+        <f t="shared" si="10"/>
+        <v>0.26354636343531684</v>
+      </c>
+      <c r="BE193">
+        <f t="shared" si="11"/>
+        <v>0.99856640481446723</v>
+      </c>
+    </row>
+    <row r="194" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB194" s="1">
+        <f t="shared" si="12"/>
+        <v>182</v>
+      </c>
+      <c r="BC194">
+        <f t="shared" si="10"/>
+        <v>0.25975502118524524</v>
+      </c>
+      <c r="BE194">
+        <f t="shared" si="11"/>
+        <v>0.99862257817185351</v>
+      </c>
+    </row>
+    <row r="195" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB195" s="1">
+        <f t="shared" si="12"/>
+        <v>183</v>
+      </c>
+      <c r="BC195">
+        <f t="shared" si="10"/>
+        <v>0.25601049158543859</v>
+      </c>
+      <c r="BE195">
+        <f t="shared" si="11"/>
+        <v>0.99867655191488602</v>
+      </c>
+    </row>
+    <row r="196" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB196" s="1">
+        <f t="shared" si="12"/>
+        <v>184</v>
+      </c>
+      <c r="BC196">
+        <f t="shared" si="10"/>
+        <v>0.25231240728774273</v>
+      </c>
+      <c r="BE196">
+        <f t="shared" si="11"/>
+        <v>0.99872841206320939</v>
+      </c>
+    </row>
+    <row r="197" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB197" s="1">
+        <f t="shared" si="12"/>
+        <v>185</v>
+      </c>
+      <c r="BC197">
+        <f t="shared" si="10"/>
+        <v>0.24866039713707411</v>
+      </c>
+      <c r="BE197">
+        <f t="shared" si="11"/>
+        <v>0.99877824128113124</v>
+      </c>
+    </row>
+    <row r="198" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB198" s="1">
+        <f t="shared" si="12"/>
+        <v>186</v>
+      </c>
+      <c r="BC198">
+        <f t="shared" si="10"/>
+        <v>0.24505408646621898</v>
+      </c>
+      <c r="BE198">
+        <f t="shared" si="11"/>
+        <v>0.99882611900783846</v>
+      </c>
+    </row>
+    <row r="199" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB199" s="1">
+        <f t="shared" si="12"/>
+        <v>187</v>
+      </c>
+      <c r="BC199">
+        <f t="shared" si="10"/>
+        <v>0.24149309738045011</v>
+      </c>
+      <c r="BE199">
+        <f t="shared" si="11"/>
+        <v>0.99887212158261562</v>
+      </c>
+    </row>
+    <row r="200" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB200" s="1">
+        <f t="shared" si="12"/>
+        <v>188</v>
+      </c>
+      <c r="BC200">
+        <f t="shared" si="10"/>
+        <v>0.23797704903224914</v>
+      </c>
+      <c r="BE200">
+        <f t="shared" si="11"/>
+        <v>0.9989163223652453</v>
+      </c>
+    </row>
+    <row r="201" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB201" s="1">
+        <f t="shared" si="12"/>
+        <v>189</v>
+      </c>
+      <c r="BC201">
+        <f t="shared" si="10"/>
+        <v>0.23450555788641442</v>
+      </c>
+      <c r="BE201">
+        <f t="shared" si="11"/>
+        <v>0.99895879185177816</v>
+      </c>
+    </row>
+    <row r="202" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB202" s="1">
+        <f t="shared" si="12"/>
+        <v>190</v>
+      </c>
+      <c r="BC202">
+        <f t="shared" si="10"/>
+        <v>0.2310782379758283</v>
+      </c>
+      <c r="BE202">
+        <f t="shared" si="11"/>
+        <v>0.9989995977858408</v>
+      </c>
+    </row>
+    <row r="203" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB203" s="1">
+        <f t="shared" si="12"/>
+        <v>191</v>
+      </c>
+      <c r="BC203">
+        <f t="shared" si="10"/>
+        <v>0.22769470114814838</v>
+      </c>
+      <c r="BE203">
+        <f t="shared" si="11"/>
+        <v>0.99903880526565947</v>
+      </c>
+    </row>
+    <row r="204" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB204" s="1">
+        <f t="shared" si="12"/>
+        <v>192</v>
+      </c>
+      <c r="BC204">
+        <f t="shared" si="10"/>
+        <v>0.22435455730368317</v>
+      </c>
+      <c r="BE204">
+        <f t="shared" si="11"/>
+        <v>0.99907647684695178</v>
+      </c>
+    </row>
+    <row r="205" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB205" s="1">
+        <f t="shared" si="12"/>
+        <v>193</v>
+      </c>
+      <c r="BC205">
+        <f t="shared" ref="BC205:BC262" si="13">BB205/$BA$13*EXP(1-BB205/$BA$13)</f>
+        <v>0.22105741462470399</v>
+      </c>
+      <c r="BE205">
+        <f t="shared" ref="BE205:BE262" si="14">TANH(BB205/$BA$13)</f>
+        <v>0.99911267264185133</v>
+      </c>
+    </row>
+    <row r="206" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB206" s="1">
+        <f t="shared" ref="BB206:BB262" si="15">BB205+1</f>
+        <v>194</v>
+      </c>
+      <c r="BC206">
+        <f t="shared" si="13"/>
+        <v>0.21780287979643884</v>
+      </c>
+      <c r="BE206">
+        <f t="shared" si="14"/>
+        <v>0.9991474504140101</v>
+      </c>
+    </row>
+    <row r="207" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB207" s="1">
+        <f t="shared" si="15"/>
+        <v>195</v>
+      </c>
+      <c r="BC207">
+        <f t="shared" si="13"/>
+        <v>0.21459055821998818</v>
+      </c>
+      <c r="BE207">
+        <f t="shared" si="14"/>
+        <v>0.99918086567002806</v>
+      </c>
+    </row>
+    <row r="208" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB208" s="1">
+        <f t="shared" si="15"/>
+        <v>196</v>
+      </c>
+      <c r="BC208">
+        <f t="shared" si="13"/>
+        <v>0.2114200542173956</v>
+      </c>
+      <c r="BE208">
+        <f t="shared" si="14"/>
+        <v>0.99921297174734702</v>
+      </c>
+    </row>
+    <row r="209" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB209" s="1">
+        <f t="shared" si="15"/>
+        <v>197</v>
+      </c>
+      <c r="BC209">
+        <f t="shared" si="13"/>
+        <v>0.20829097122910045</v>
+      </c>
+      <c r="BE209">
+        <f t="shared" si="14"/>
+        <v>0.99924381989874578</v>
+      </c>
+    </row>
+    <row r="210" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB210" s="1">
+        <f t="shared" si="15"/>
+        <v>198</v>
+      </c>
+      <c r="BC210">
+        <f t="shared" si="13"/>
+        <v>0.20520291200399429</v>
+      </c>
+      <c r="BE210">
+        <f t="shared" si="14"/>
+        <v>0.99927345937356382</v>
+      </c>
+    </row>
+    <row r="211" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB211" s="1">
+        <f t="shared" si="15"/>
+        <v>199</v>
+      </c>
+      <c r="BC211">
+        <f t="shared" si="13"/>
+        <v>0.20215547878229603</v>
+      </c>
+      <c r="BE211">
+        <f t="shared" si="14"/>
+        <v>0.99930193749577989</v>
+      </c>
+    </row>
+    <row r="212" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB212" s="1">
+        <f t="shared" si="15"/>
+        <v>200</v>
+      </c>
+      <c r="BC212">
+        <f t="shared" si="13"/>
+        <v>0.19914827347145578</v>
+      </c>
+      <c r="BE212">
+        <f t="shared" si="14"/>
+        <v>0.99932929973906692</v>
+      </c>
+    </row>
+    <row r="213" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB213" s="1">
+        <f t="shared" si="15"/>
+        <v>201</v>
+      </c>
+      <c r="BC213">
+        <f t="shared" si="13"/>
+        <v>0.19618089781529216</v>
+      </c>
+      <c r="BE213">
+        <f t="shared" si="14"/>
+        <v>0.99935558979893724</v>
+      </c>
+    </row>
+    <row r="214" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB214" s="1">
+        <f t="shared" si="15"/>
+        <v>202</v>
+      </c>
+      <c r="BC214">
+        <f t="shared" si="13"/>
+        <v>0.19325295355656141</v>
+      </c>
+      <c r="BE214">
+        <f t="shared" si="14"/>
+        <v>0.99938084966208895</v>
+      </c>
+    </row>
+    <row r="215" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB215" s="1">
+        <f t="shared" si="15"/>
+        <v>203</v>
+      </c>
+      <c r="BC215">
+        <f t="shared" si="13"/>
+        <v>0.19036404259315332</v>
+      </c>
+      <c r="BE215">
+        <f t="shared" si="14"/>
+        <v>0.99940511967306356</v>
+      </c>
+    </row>
+    <row r="216" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB216" s="1">
+        <f t="shared" si="15"/>
+        <v>204</v>
+      </c>
+      <c r="BC216">
+        <f t="shared" si="13"/>
+        <v>0.18751376712810036</v>
+      </c>
+      <c r="BE216">
+        <f t="shared" si="14"/>
+        <v>0.9994284385983162</v>
+      </c>
+    </row>
+    <row r="217" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB217" s="1">
+        <f t="shared" si="15"/>
+        <v>205</v>
+      </c>
+      <c r="BC217">
+        <f t="shared" si="13"/>
+        <v>0.18470172981358704</v>
+      </c>
+      <c r="BE217">
+        <f t="shared" si="14"/>
+        <v>0.99945084368779735</v>
+      </c>
+    </row>
+    <row r="218" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB218" s="1">
+        <f t="shared" si="15"/>
+        <v>206</v>
+      </c>
+      <c r="BC218">
+        <f t="shared" si="13"/>
+        <v>0.1819275338891346</v>
+      </c>
+      <c r="BE218">
+        <f t="shared" si="14"/>
+        <v>0.9994723707341433</v>
+      </c>
+    </row>
+    <row r="219" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB219" s="1">
+        <f t="shared" si="15"/>
+        <v>207</v>
+      </c>
+      <c r="BC219">
+        <f t="shared" si="13"/>
+        <v>0.17919078331413887</v>
+      </c>
+      <c r="BE219">
+        <f t="shared" si="14"/>
+        <v>0.99949305412956702</v>
+      </c>
+    </row>
+    <row r="220" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB220" s="1">
+        <f t="shared" si="15"/>
+        <v>208</v>
+      </c>
+      <c r="BC220">
+        <f t="shared" si="13"/>
+        <v>0.17649108289492738</v>
+      </c>
+      <c r="BE220">
+        <f t="shared" si="14"/>
+        <v>0.99951292692053662</v>
+      </c>
+    </row>
+    <row r="221" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB221" s="1">
+        <f t="shared" si="15"/>
+        <v>209</v>
+      </c>
+      <c r="BC221">
+        <f t="shared" si="13"/>
+        <v>0.17382803840650388</v>
+      </c>
+      <c r="BE221">
+        <f t="shared" si="14"/>
+        <v>0.99953202086032766</v>
+      </c>
+    </row>
+    <row r="222" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB222" s="1">
+        <f t="shared" si="15"/>
+        <v>210</v>
+      </c>
+      <c r="BC222">
+        <f t="shared" si="13"/>
+        <v>0.17120125670913811</v>
+      </c>
+      <c r="BE222">
+        <f t="shared" si="14"/>
+        <v>0.99955036645953332</v>
+      </c>
+    </row>
+    <row r="223" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB223" s="1">
+        <f t="shared" si="15"/>
+        <v>211</v>
+      </c>
+      <c r="BC223">
+        <f t="shared" si="13"/>
+        <v>0.16861034585995952</v>
+      </c>
+      <c r="BE223">
+        <f t="shared" si="14"/>
+        <v>0.99956799303460675</v>
+      </c>
+    </row>
+    <row r="224" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB224" s="1">
+        <f t="shared" si="15"/>
+        <v>212</v>
+      </c>
+      <c r="BC224">
+        <f t="shared" si="13"/>
+        <v>0.16605491521970517</v>
+      </c>
+      <c r="BE224">
+        <f t="shared" si="14"/>
+        <v>0.99958492875451532</v>
+      </c>
+    </row>
+    <row r="225" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB225" s="1">
+        <f t="shared" si="15"/>
+        <v>213</v>
+      </c>
+      <c r="BC225">
+        <f t="shared" si="13"/>
+        <v>0.16353457555477183</v>
+      </c>
+      <c r="BE225">
+        <f t="shared" si="14"/>
+        <v>0.99960120068557801</v>
+      </c>
+    </row>
+    <row r="226" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB226" s="1">
+        <f t="shared" si="15"/>
+        <v>214</v>
+      </c>
+      <c r="BC226">
+        <f t="shared" si="13"/>
+        <v>0.16104893913471413</v>
+      </c>
+      <c r="BE226">
+        <f t="shared" si="14"/>
+        <v>0.99961683483455754</v>
+      </c>
+    </row>
+    <row r="227" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB227" s="1">
+        <f t="shared" si="15"/>
+        <v>215</v>
+      </c>
+      <c r="BC227">
+        <f t="shared" si="13"/>
+        <v>0.15859761982533205</v>
+      </c>
+      <c r="BE227">
+        <f t="shared" si="14"/>
+        <v>0.99963185619007322</v>
+      </c>
+    </row>
+    <row r="228" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB228" s="1">
+        <f t="shared" si="15"/>
+        <v>216</v>
+      </c>
+      <c r="BC228">
+        <f t="shared" si="13"/>
+        <v>0.1561802331774805</v>
+      </c>
+      <c r="BE228">
+        <f t="shared" si="14"/>
+        <v>0.99964628876239991</v>
+      </c>
+    </row>
+    <row r="229" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB229" s="1">
+        <f t="shared" si="15"/>
+        <v>217</v>
+      </c>
+      <c r="BC229">
+        <f t="shared" si="13"/>
+        <v>0.1537963965117381</v>
+      </c>
+      <c r="BE229">
+        <f t="shared" si="14"/>
+        <v>0.99966015562171673</v>
+      </c>
+    </row>
+    <row r="230" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB230" s="1">
+        <f t="shared" si="15"/>
+        <v>218</v>
+      </c>
+      <c r="BC230">
+        <f t="shared" si="13"/>
+        <v>0.15144572899906009</v>
+      </c>
+      <c r="BE230">
+        <f t="shared" si="14"/>
+        <v>0.99967347893486391</v>
+      </c>
+    </row>
+    <row r="231" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB231" s="1">
+        <f t="shared" si="15"/>
+        <v>219</v>
+      </c>
+      <c r="BC231">
+        <f t="shared" si="13"/>
+        <v>0.14912785173754511</v>
+      </c>
+      <c r="BE231">
+        <f t="shared" si="14"/>
+        <v>0.99968628000066617</v>
+      </c>
+    </row>
+    <row r="232" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB232" s="1">
+        <f t="shared" si="15"/>
+        <v>220</v>
+      </c>
+      <c r="BC232">
+        <f t="shared" si="13"/>
+        <v>0.14684238782543471</v>
+      </c>
+      <c r="BE232">
+        <f t="shared" si="14"/>
+        <v>0.99969857928388062</v>
+      </c>
+    </row>
+    <row r="233" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB233" s="1">
+        <f t="shared" si="15"/>
+        <v>221</v>
+      </c>
+      <c r="BC233">
+        <f t="shared" si="13"/>
+        <v>0.14458896243046759</v>
+      </c>
+      <c r="BE233">
+        <f t="shared" si="14"/>
+        <v>0.99971039644781656</v>
+      </c>
+    </row>
+    <row r="234" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB234" s="1">
+        <f t="shared" si="15"/>
+        <v>222</v>
+      </c>
+      <c r="BC234">
+        <f t="shared" si="13"/>
+        <v>0.14236720285570176</v>
+      </c>
+      <c r="BE234">
+        <f t="shared" si="14"/>
+        <v>0.99972175038568678</v>
+      </c>
+    </row>
+    <row r="235" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB235" s="1">
+        <f t="shared" si="15"/>
+        <v>223</v>
+      </c>
+      <c r="BC235">
+        <f t="shared" si="13"/>
+        <v>0.14017673860191998</v>
+      </c>
+      <c r="BE235">
+        <f t="shared" si="14"/>
+        <v>0.99973265925073274</v>
+      </c>
+    </row>
+    <row r="236" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB236" s="1">
+        <f t="shared" si="15"/>
+        <v>224</v>
+      </c>
+      <c r="BC236">
+        <f t="shared" si="13"/>
+        <v>0.13801720142672477</v>
+      </c>
+      <c r="BE236">
+        <f t="shared" si="14"/>
+        <v>0.99974314048517354</v>
+      </c>
+    </row>
+    <row r="237" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB237" s="1">
+        <f t="shared" si="15"/>
+        <v>225</v>
+      </c>
+      <c r="BC237">
+        <f t="shared" si="13"/>
+        <v>0.13588822540043324</v>
+      </c>
+      <c r="BE237">
+        <f t="shared" si="14"/>
+        <v>0.9997532108480276</v>
+      </c>
+    </row>
+    <row r="238" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB238" s="1">
+        <f t="shared" si="15"/>
+        <v>226</v>
+      </c>
+      <c r="BC238">
+        <f t="shared" si="13"/>
+        <v>0.13378944695887188</v>
+      </c>
+      <c r="BE238">
+        <f t="shared" si="14"/>
+        <v>0.9997628864418443</v>
+      </c>
+    </row>
+    <row r="239" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB239" s="1">
+        <f t="shared" si="15"/>
+        <v>227</v>
+      </c>
+      <c r="BC239">
+        <f t="shared" si="13"/>
+        <v>0.13172050495317461</v>
+      </c>
+      <c r="BE239">
+        <f t="shared" si="14"/>
+        <v>0.99977218273839508</v>
+      </c>
+    </row>
+    <row r="240" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB240" s="1">
+        <f t="shared" si="15"/>
+        <v>228</v>
+      </c>
+      <c r="BC240">
+        <f t="shared" si="13"/>
+        <v>0.1296810406966814</v>
+      </c>
+      <c r="BE240">
+        <f t="shared" si="14"/>
+        <v>0.99978111460335883</v>
+      </c>
+    </row>
+    <row r="241" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB241" s="1">
+        <f t="shared" si="15"/>
+        <v>229</v>
+      </c>
+      <c r="BC241">
+        <f t="shared" si="13"/>
+        <v>0.12767069800903133</v>
+      </c>
+      <c r="BE241">
+        <f t="shared" si="14"/>
+        <v>0.99978969632004444</v>
+      </c>
+    </row>
+    <row r="242" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB242" s="1">
+        <f t="shared" si="15"/>
+        <v>230</v>
+      </c>
+      <c r="BC242">
+        <f t="shared" si="13"/>
+        <v>0.1256891232575458</v>
+      </c>
+      <c r="BE242">
+        <f t="shared" si="14"/>
+        <v>0.99979794161218449</v>
+      </c>
+    </row>
+    <row r="243" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB243" s="1">
+        <f t="shared" si="15"/>
+        <v>231</v>
+      </c>
+      <c r="BC243">
+        <f t="shared" si="13"/>
+        <v>0.12373596539598837</v>
+      </c>
+      <c r="BE243">
+        <f t="shared" si="14"/>
+        <v>0.9998058636658409</v>
+      </c>
+    </row>
+    <row r="244" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB244" s="1">
+        <f t="shared" si="15"/>
+        <v>232</v>
+      </c>
+      <c r="BC244">
+        <f t="shared" si="13"/>
+        <v>0.12181087600079218</v>
+      </c>
+      <c r="BE244">
+        <f t="shared" si="14"/>
+        <v>0.99981347515045249</v>
+      </c>
+    </row>
+    <row r="245" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB245" s="1">
+        <f t="shared" si="15"/>
+        <v>233</v>
+      </c>
+      <c r="BC245">
+        <f t="shared" si="13"/>
+        <v>0.11991350930483732</v>
+      </c>
+      <c r="BE245">
+        <f t="shared" si="14"/>
+        <v>0.99982078823906084</v>
+      </c>
+    </row>
+    <row r="246" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB246" s="1">
+        <f t="shared" si="15"/>
+        <v>234</v>
+      </c>
+      <c r="BC246">
+        <f t="shared" si="13"/>
+        <v>0.1180435222288634</v>
+      </c>
+      <c r="BE246">
+        <f t="shared" si="14"/>
+        <v>0.99982781462774484</v>
+      </c>
+    </row>
+    <row r="247" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB247" s="1">
+        <f t="shared" si="15"/>
+        <v>235</v>
+      </c>
+      <c r="BC247">
+        <f t="shared" si="13"/>
+        <v>0.11620057441059513</v>
+      </c>
+      <c r="BE247">
+        <f t="shared" si="14"/>
+        <v>0.99983456555429673</v>
+      </c>
+    </row>
+    <row r="248" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB248" s="1">
+        <f t="shared" si="15"/>
+        <v>236</v>
+      </c>
+      <c r="BC248">
+        <f t="shared" si="13"/>
+        <v>0.1143843282316621</v>
+      </c>
+      <c r="BE248">
+        <f t="shared" si="14"/>
+        <v>0.99984105181616556</v>
+      </c>
+    </row>
+    <row r="249" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB249" s="1">
+        <f t="shared" si="15"/>
+        <v>237</v>
+      </c>
+      <c r="BC249">
+        <f t="shared" si="13"/>
+        <v>0.11259444884238569</v>
+      </c>
+      <c r="BE249">
+        <f t="shared" si="14"/>
+        <v>0.99984728378770138</v>
+      </c>
+    </row>
+    <row r="250" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB250" s="1">
+        <f t="shared" si="15"/>
+        <v>238</v>
+      </c>
+      <c r="BC250">
+        <f t="shared" si="13"/>
+        <v>0.11083060418450977</v>
+      </c>
+      <c r="BE250">
+        <f t="shared" si="14"/>
+        <v>0.99985327143672453</v>
+      </c>
+    </row>
+    <row r="251" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB251" s="1">
+        <f t="shared" si="15"/>
+        <v>239</v>
+      </c>
+      <c r="BC251">
+        <f t="shared" si="13"/>
+        <v>0.1090924650119444</v>
+      </c>
+      <c r="BE251">
+        <f t="shared" si="14"/>
+        <v>0.9998590243404446</v>
+      </c>
+    </row>
+    <row r="252" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB252" s="1">
+        <f t="shared" si="15"/>
+        <v>240</v>
+      </c>
+      <c r="BC252">
+        <f t="shared" si="13"/>
+        <v>0.10737970490959488</v>
+      </c>
+      <c r="BE252">
+        <f t="shared" si="14"/>
+        <v>0.9998645517007605</v>
+      </c>
+    </row>
+    <row r="253" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB253" s="1">
+        <f t="shared" si="15"/>
+        <v>241</v>
+      </c>
+      <c r="BC253">
+        <f t="shared" si="13"/>
+        <v>0.10569200031034097</v>
+      </c>
+      <c r="BE253">
+        <f t="shared" si="14"/>
+        <v>0.99986986235895869</v>
+      </c>
+    </row>
+    <row r="254" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB254" s="1">
+        <f t="shared" si="15"/>
+        <v>242</v>
+      </c>
+      <c r="BC254">
+        <f t="shared" si="13"/>
+        <v>0.10402903051023522</v>
+      </c>
+      <c r="BE254">
+        <f t="shared" si="14"/>
+        <v>0.9998749648098384</v>
+      </c>
+    </row>
+    <row r="255" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB255" s="1">
+        <f t="shared" si="15"/>
+        <v>243</v>
+      </c>
+      <c r="BC255">
+        <f t="shared" si="13"/>
+        <v>0.10239047768198133</v>
+      </c>
+      <c r="BE255">
+        <f t="shared" si="14"/>
+        <v>0.99987986721528299</v>
+      </c>
+    </row>
+    <row r="256" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB256" s="1">
+        <f t="shared" si="15"/>
+        <v>244</v>
+      </c>
+      <c r="BC256">
+        <f t="shared" si="13"/>
+        <v>0.10077602688675733</v>
+      </c>
+      <c r="BE256">
+        <f t="shared" si="14"/>
+        <v>0.99988457741730052</v>
+      </c>
+    </row>
+    <row r="257" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB257" s="1">
+        <f t="shared" si="15"/>
+        <v>245</v>
+      </c>
+      <c r="BC257">
+        <f t="shared" si="13"/>
+        <v>9.9185366084441479E-2</v>
+      </c>
+      <c r="BE257">
+        <f t="shared" si="14"/>
+        <v>0.99988910295055433</v>
+      </c>
+    </row>
+    <row r="258" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB258" s="1">
+        <f t="shared" si="15"/>
+        <v>246</v>
+      </c>
+      <c r="BC258">
+        <f t="shared" si="13"/>
+        <v>9.7618186142301819E-2</v>
+      </c>
+      <c r="BE258">
+        <f t="shared" si="14"/>
+        <v>0.99989345105440441</v>
+      </c>
+    </row>
+    <row r="259" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB259" s="1">
+        <f t="shared" si="15"/>
+        <v>247</v>
+      </c>
+      <c r="BC259">
+        <f t="shared" si="13"/>
+        <v>9.6074180842203802E-2</v>
+      </c>
+      <c r="BE259">
+        <f t="shared" si="14"/>
+        <v>0.99989762868447296</v>
+      </c>
+    </row>
+    <row r="260" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB260" s="1">
+        <f t="shared" si="15"/>
+        <v>248</v>
+      </c>
+      <c r="BC260">
+        <f t="shared" si="13"/>
+        <v>9.4553046886393724E-2</v>
+      </c>
+      <c r="BE260">
+        <f t="shared" si="14"/>
+        <v>0.99990164252376423</v>
+      </c>
+    </row>
+    <row r="261" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB261" s="1">
+        <f t="shared" si="15"/>
+        <v>249</v>
+      </c>
+      <c r="BC261">
+        <f t="shared" si="13"/>
+        <v>9.3054483901909166E-2</v>
+      </c>
+      <c r="BE261">
+        <f t="shared" si="14"/>
+        <v>0.99990549899334236</v>
+      </c>
+    </row>
+    <row r="262" spans="54:57" x14ac:dyDescent="0.35">
+      <c r="BB262" s="1">
+        <f t="shared" si="15"/>
+        <v>250</v>
+      </c>
+      <c r="BC262">
+        <f t="shared" si="13"/>
+        <v>9.1578194443670893E-2</v>
+      </c>
+      <c r="BE262">
+        <f t="shared" si="14"/>
+        <v>0.999909204262595</v>
       </c>
     </row>
   </sheetData>
@@ -6652,20 +13683,20 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" customWidth="1"/>
+    <col min="11" max="11" width="10.7265625" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" customWidth="1"/>
+    <col min="15" max="15" width="12.1796875" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.35">
       <c r="Q2" t="s">
         <v>20</v>
       </c>
@@ -6679,7 +13710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.35">
       <c r="P3" t="s">
         <v>15</v>
       </c>
@@ -6696,7 +13727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.35">
       <c r="E4" s="4"/>
       <c r="F4" s="1"/>
       <c r="L4" s="2" t="s">
@@ -6718,7 +13749,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -6751,7 +13782,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -6784,7 +13815,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -6820,7 +13851,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.35">
       <c r="H8" s="2">
         <v>1</v>
       </c>
@@ -6841,7 +13872,7 @@
         <v>0.60140833448138065</v>
       </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -6868,7 +13899,7 @@
         <v>0.48309046417552431</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.35">
       <c r="H10" s="2">
         <v>3</v>
       </c>
@@ -6889,7 +13920,7 @@
         <v>0.39580889678530234</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.35">
       <c r="H11" s="2">
         <v>4</v>
       </c>
@@ -6910,7 +13941,7 @@
         <v>0.33040475708583444</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.35">
       <c r="H12" s="2">
         <v>5</v>
       </c>
@@ -6931,7 +13962,7 @@
         <v>0.28060215912624697</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.35">
       <c r="H13" s="2">
         <v>6</v>
       </c>
@@ -6961,7 +13992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.35">
       <c r="H14" s="2">
         <v>7</v>
       </c>
@@ -6993,7 +14024,7 @@
         <v>1.2799999999999999E-5</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.35">
       <c r="H15" s="2">
         <v>8</v>
       </c>
@@ -7026,7 +14057,7 @@
       </c>
       <c r="Y15" s="6"/>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.35">
       <c r="H16" s="2">
         <v>9</v>
       </c>
@@ -7059,7 +14090,7 @@
       </c>
       <c r="Y16" s="6"/>
     </row>
-    <row r="17" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H17" s="2">
         <v>10</v>
       </c>
@@ -7091,7 +14122,7 @@
         <v>8.7099476275120214E-5</v>
       </c>
     </row>
-    <row r="18" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:18" x14ac:dyDescent="0.35">
       <c r="P18">
         <v>4</v>
       </c>
@@ -7104,7 +14135,7 @@
         <v>1.6505071180051713E-4</v>
       </c>
     </row>
-    <row r="19" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H19" s="2" t="s">
         <v>6</v>
       </c>
@@ -7128,7 +14159,7 @@
         <v>3.1276580102283466E-4</v>
       </c>
     </row>
-    <row r="20" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:18" x14ac:dyDescent="0.35">
       <c r="P20">
         <v>6</v>
       </c>
@@ -7141,7 +14172,7 @@
         <v>5.9268115370314295E-4</v>
       </c>
     </row>
-    <row r="21" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:18" x14ac:dyDescent="0.35">
       <c r="P21">
         <v>7</v>
       </c>
@@ -7154,7 +14185,7 @@
         <v>1.123111762239129E-3</v>
       </c>
     </row>
-    <row r="22" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:18" x14ac:dyDescent="0.35">
       <c r="P22">
         <v>8</v>
       </c>
@@ -7167,7 +14198,7 @@
         <v>2.1282607395201065E-3</v>
       </c>
     </row>
-    <row r="23" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:18" x14ac:dyDescent="0.35">
       <c r="P23">
         <v>9</v>
       </c>
@@ -7180,7 +14211,7 @@
         <v>4.0329857879435761E-3</v>
       </c>
     </row>
-    <row r="24" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:18" x14ac:dyDescent="0.35">
       <c r="P24">
         <v>10</v>
       </c>
@@ -7193,7 +14224,7 @@
         <v>7.6423786163637032E-3</v>
       </c>
     </row>
-    <row r="25" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:18" x14ac:dyDescent="0.35">
       <c r="P25">
         <v>11</v>
       </c>
@@ -7206,7 +14237,7 @@
         <v>1.4482062171023545E-2</v>
       </c>
     </row>
-    <row r="26" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:18" x14ac:dyDescent="0.35">
       <c r="P26">
         <v>12</v>
       </c>
@@ -7219,7 +14250,7 @@
         <v>2.7443042965225671E-2</v>
       </c>
     </row>
-    <row r="27" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:18" x14ac:dyDescent="0.35">
       <c r="P27">
         <v>13</v>
       </c>
@@ -7232,7 +14263,7 @@
         <v>5.2003685545426351E-2</v>
       </c>
     </row>
-    <row r="28" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:18" x14ac:dyDescent="0.35">
       <c r="P28">
         <v>14</v>
       </c>
@@ -7245,7 +14276,7 @@
         <v>9.8545314881240756E-2</v>
       </c>
     </row>
-    <row r="29" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:18" x14ac:dyDescent="0.35">
       <c r="P29">
         <v>15</v>
       </c>
@@ -7258,7 +14289,7 @@
         <v>0.18674020856771711</v>
       </c>
     </row>
-    <row r="30" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:18" x14ac:dyDescent="0.35">
       <c r="P30">
         <v>16</v>
       </c>
@@ -7271,7 +14302,7 @@
         <v>0.35386670120177122</v>
       </c>
     </row>
-    <row r="31" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:18" x14ac:dyDescent="0.35">
       <c r="P31">
         <v>17</v>
       </c>
@@ -7284,7 +14315,7 @@
         <v>0.6705660402752246</v>
       </c>
     </row>
-    <row r="32" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:18" x14ac:dyDescent="0.35">
       <c r="P32">
         <v>18</v>
       </c>
@@ -7297,7 +14328,7 @@
         <v>1.270701122324599</v>
       </c>
     </row>
-    <row r="33" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P33">
         <v>19</v>
       </c>
@@ -7310,7 +14341,7 @@
         <v>2.4079378395217743</v>
       </c>
     </row>
-    <row r="34" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P34">
         <v>20</v>
       </c>
@@ -7323,7 +14354,7 @@
         <v>4.5629649153010314</v>
       </c>
     </row>
-    <row r="35" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P35">
         <v>21</v>
       </c>
@@ -7336,7 +14367,7 @@
         <v>8.6466720513031383</v>
       </c>
     </row>
-    <row r="36" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P36">
         <v>22</v>
       </c>
@@ -7349,7 +14380,7 @@
         <v>16.385165994171189</v>
       </c>
     </row>
-    <row r="37" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P37">
         <v>23</v>
       </c>
@@ -7362,7 +14393,7 @@
         <v>31.049363623786608</v>
       </c>
     </row>
-    <row r="38" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P38">
         <v>24</v>
       </c>
@@ -7375,7 +14406,7 @@
         <v>58.837547436814233</v>
       </c>
     </row>
-    <row r="39" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P39">
         <v>25</v>
       </c>
@@ -7388,7 +14419,7 @@
         <v>111.49526381040775</v>
       </c>
     </row>
-    <row r="40" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P40">
         <v>26</v>
       </c>
@@ -7401,7 +14432,7 @@
         <v>211.2799461177801</v>
       </c>
     </row>
-    <row r="41" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P41">
         <v>27</v>
       </c>
@@ -7414,7 +14445,7 @@
         <v>400.36871617648973</v>
       </c>
     </row>
-    <row r="42" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P42">
         <v>28</v>
       </c>
@@ -7427,7 +14458,7 @@
         <v>758.68586601897584</v>
       </c>
     </row>
-    <row r="43" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P43">
         <v>29</v>
       </c>
@@ -7440,7 +14471,7 @@
         <v>1437.6853636167386</v>
       </c>
     </row>
-    <row r="44" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P44">
         <v>30</v>
       </c>
@@ -7453,7 +14484,7 @@
         <v>2724.3676168683191</v>
       </c>
     </row>
-    <row r="45" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P45">
         <v>31</v>
       </c>
@@ -7466,7 +14497,7 @@
         <v>5162.5891865303738</v>
       </c>
     </row>
-    <row r="46" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P46">
         <v>32</v>
       </c>
@@ -7479,7 +14510,7 @@
         <v>9782.9407983924721</v>
       </c>
     </row>
-    <row r="47" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P47">
         <v>33</v>
       </c>
@@ -7492,7 +14523,7 @@
         <v>18538.358797666235</v>
       </c>
     </row>
-    <row r="48" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P48">
         <v>34</v>
       </c>
@@ -7505,7 +14536,7 @@
         <v>35129.594872687048</v>
       </c>
     </row>
-    <row r="49" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P49">
         <v>35</v>
       </c>

--- a/scripts/Irradiancetest_SalinityMult_Fit-2.xlsx
+++ b/scripts/Irradiancetest_SalinityMult_Fit-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greig\Documents\github\Ecosystem-Model-Data-Framework\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA60DA1-80EF-4CDF-9457-93CF6DECEDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BE1704-DBE7-47D4-9F9D-F91EBEB93042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{C38FC2C9-5C90-46CF-89CA-BC452CCF3AA7}"/>
   </bookViews>
@@ -34,7 +34,6 @@
     <definedName name="x">'Old - JB experiments'!$Y$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>Mixing Layer thickness</t>
   </si>
@@ -269,6 +268,15 @@
   </si>
   <si>
     <t>Zp = depth of photic zone</t>
+  </si>
+  <si>
+    <t>I_0 / zK *(1-e^(-Kz)</t>
+  </si>
+  <si>
+    <t>Is this sum across depths?</t>
+  </si>
+  <si>
+    <t>crosscheck</t>
   </si>
 </sst>
 </file>
@@ -9419,8 +9427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE4E476-7789-41A8-A99A-C7B8C3DE4629}">
   <dimension ref="B3:BL262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="Q5" workbookViewId="0">
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10051,6 +10059,12 @@
         <f t="shared" si="1"/>
         <v>1.8946137629748092</v>
       </c>
+      <c r="AB23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>74</v>
+      </c>
       <c r="BB23" s="1">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -10081,6 +10095,13 @@
         <f t="shared" si="1"/>
         <v>1.4035643967660916</v>
       </c>
+      <c r="AB24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE24">
+        <f>SUM(P10:P39)</f>
+        <v>361.08637445968083</v>
+      </c>
       <c r="BB24" s="1">
         <f t="shared" si="6"/>
         <v>12</v>
@@ -10110,6 +10131,10 @@
       <c r="P25">
         <f t="shared" si="1"/>
         <v>1.0397860790244648</v>
+      </c>
+      <c r="AB25">
+        <f>I0/(29*K)*(1-EXP(-K*29))</f>
+        <v>6.896548245878189</v>
       </c>
       <c r="AO25" t="s">
         <v>55</v>

--- a/scripts/Irradiancetest_SalinityMult_Fit-2.xlsx
+++ b/scripts/Irradiancetest_SalinityMult_Fit-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greig\Documents\github\Ecosystem-Model-Data-Framework\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BE1704-DBE7-47D4-9F9D-F91EBEB93042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51433A4-22C5-4E18-93A5-8FCB0088311B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{C38FC2C9-5C90-46CF-89CA-BC452CCF3AA7}"/>
   </bookViews>
@@ -213,9 +213,6 @@
     <t>testing Olson's way of depth integrating</t>
   </si>
   <si>
-    <t>Olson's method</t>
-  </si>
-  <si>
     <t>Zp = 4.6/K</t>
   </si>
   <si>
@@ -277,6 +274,9 @@
   </si>
   <si>
     <t>crosscheck</t>
+  </si>
+  <si>
+    <t>Olson's method ( I think this is what her equation means but this equation is actually from Kirk, 2010, Chp)</t>
   </si>
 </sst>
 </file>
@@ -8690,10 +8690,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>37105</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>214905</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>176788</xdr:rowOff>
+      <xdr:rowOff>186313</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8773,7 +8773,7 @@
       <xdr:col>52</xdr:col>
       <xdr:colOff>190932</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>120813</xdr:rowOff>
+      <xdr:rowOff>130338</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8817,7 +8817,7 @@
       <xdr:col>46</xdr:col>
       <xdr:colOff>400290</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>139934</xdr:rowOff>
+      <xdr:rowOff>149459</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8859,7 +8859,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>578099</xdr:colOff>
+      <xdr:colOff>587624</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>133584</xdr:rowOff>
     </xdr:to>
@@ -8903,9 +8903,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>74</xdr:col>
-      <xdr:colOff>222634</xdr:colOff>
+      <xdr:colOff>225809</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>82679</xdr:rowOff>
+      <xdr:rowOff>92204</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9427,40 +9427,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE4E476-7789-41A8-A99A-C7B8C3DE4629}">
   <dimension ref="B3:BL262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q5" workbookViewId="0">
-      <selection activeCell="AG14" sqref="AG14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BI17" sqref="BI17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" customWidth="1"/>
-    <col min="14" max="14" width="12.453125" customWidth="1"/>
-    <col min="54" max="54" width="16.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:57" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:57" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:57" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:57" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:57" x14ac:dyDescent="0.25">
       <c r="BB6" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="2:57" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>41</v>
       </c>
@@ -9471,10 +9473,10 @@
         <v>37</v>
       </c>
       <c r="X8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="2:57" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>42</v>
       </c>
@@ -9503,13 +9505,13 @@
         <v>33</v>
       </c>
       <c r="BB9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BE9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="2:57" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -9559,13 +9561,13 @@
         <v>0.44</v>
       </c>
       <c r="BB10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BE10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="2:57" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>30</v>
       </c>
@@ -9610,22 +9612,22 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AZ11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BA11" s="1">
         <v>1</v>
       </c>
       <c r="BB11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC11" t="s">
         <v>61</v>
       </c>
-      <c r="BC11" t="s">
-        <v>62</v>
-      </c>
       <c r="BE11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="2:57" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:57" x14ac:dyDescent="0.25">
       <c r="J12">
         <f t="shared" ref="J12:J37" si="2">J11+1</f>
         <v>12</v>
@@ -9653,7 +9655,7 @@
         <v>6.6</v>
       </c>
       <c r="AZ12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BA12" s="1">
         <v>0.02</v>
@@ -9670,7 +9672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:57" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:57" x14ac:dyDescent="0.25">
       <c r="J13">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -9709,10 +9711,10 @@
         <v>93.598560000000006</v>
       </c>
       <c r="AE13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AZ13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BA13">
         <f>BA11/BA12</f>
@@ -9731,7 +9733,7 @@
         <v>1.9997333759930933E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:57" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:57" x14ac:dyDescent="0.25">
       <c r="J14">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -9760,10 +9762,10 @@
         <v>20.591683200000002</v>
       </c>
       <c r="AF14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG14" t="s">
         <v>57</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>58</v>
       </c>
       <c r="BB14" s="1">
         <f t="shared" ref="BB14:BB77" si="6">BB13+1</f>
@@ -9778,7 +9780,7 @@
         <v>3.9978680311163563E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:57" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:57" x14ac:dyDescent="0.25">
       <c r="J15">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -9811,7 +9813,7 @@
         <v>5.9928103529143496E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:57" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:57" x14ac:dyDescent="0.25">
       <c r="J16">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -9837,7 +9839,7 @@
         <v>20.568616426883452</v>
       </c>
       <c r="AE16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BB16" s="1">
         <f t="shared" si="6"/>
@@ -9852,7 +9854,7 @@
         <v>7.9829769111131349E-2</v>
       </c>
     </row>
-    <row r="17" spans="10:64" x14ac:dyDescent="0.35">
+    <row r="17" spans="10:64" x14ac:dyDescent="0.25">
       <c r="J17">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -9870,7 +9872,7 @@
         <v>11.461745347222422</v>
       </c>
       <c r="AE17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF17">
         <f>4.6/M10</f>
@@ -9889,7 +9891,7 @@
         <v>9.9667994624955833E-2</v>
       </c>
     </row>
-    <row r="18" spans="10:64" x14ac:dyDescent="0.35">
+    <row r="18" spans="10:64" x14ac:dyDescent="0.25">
       <c r="J18">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -9919,7 +9921,7 @@
         <v>0.11942729853438588</v>
       </c>
     </row>
-    <row r="19" spans="10:64" x14ac:dyDescent="0.35">
+    <row r="19" spans="10:64" x14ac:dyDescent="0.25">
       <c r="J19">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -9949,10 +9951,10 @@
         <v>0.13909244787845804</v>
       </c>
       <c r="BL19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="10:64" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="10:64" x14ac:dyDescent="0.25">
       <c r="J20">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -9982,7 +9984,7 @@
         <v>0.15864850429749897</v>
       </c>
     </row>
-    <row r="21" spans="10:64" x14ac:dyDescent="0.35">
+    <row r="21" spans="10:64" x14ac:dyDescent="0.25">
       <c r="J21">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -10012,7 +10014,7 @@
         <v>0.1780808681173302</v>
       </c>
     </row>
-    <row r="22" spans="10:64" x14ac:dyDescent="0.35">
+    <row r="22" spans="10:64" x14ac:dyDescent="0.25">
       <c r="J22">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -10042,7 +10044,7 @@
         <v>0.19737532022490403</v>
       </c>
     </row>
-    <row r="23" spans="10:64" x14ac:dyDescent="0.35">
+    <row r="23" spans="10:64" x14ac:dyDescent="0.25">
       <c r="J23">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -10060,10 +10062,10 @@
         <v>1.8946137629748092</v>
       </c>
       <c r="AB23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE23" t="s">
         <v>73</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>74</v>
       </c>
       <c r="BB23" s="1">
         <f t="shared" si="6"/>
@@ -10078,7 +10080,7 @@
         <v>0.21651806149302882</v>
       </c>
     </row>
-    <row r="24" spans="10:64" x14ac:dyDescent="0.35">
+    <row r="24" spans="10:64" x14ac:dyDescent="0.25">
       <c r="J24">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -10096,7 +10098,7 @@
         <v>1.4035643967660916</v>
       </c>
       <c r="AB24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE24">
         <f>SUM(P10:P39)</f>
@@ -10115,7 +10117,7 @@
         <v>0.23549574953849794</v>
       </c>
     </row>
-    <row r="25" spans="10:64" x14ac:dyDescent="0.35">
+    <row r="25" spans="10:64" x14ac:dyDescent="0.25">
       <c r="J25">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -10137,7 +10139,7 @@
         <v>6.896548245878189</v>
       </c>
       <c r="AO25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BB25" s="1">
         <f t="shared" si="6"/>
@@ -10152,7 +10154,7 @@
         <v>0.25429553262639121</v>
       </c>
     </row>
-    <row r="26" spans="10:64" x14ac:dyDescent="0.35">
+    <row r="26" spans="10:64" x14ac:dyDescent="0.25">
       <c r="J26">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -10182,7 +10184,7 @@
         <v>0.27290508056313273</v>
       </c>
     </row>
-    <row r="27" spans="10:64" x14ac:dyDescent="0.35">
+    <row r="27" spans="10:64" x14ac:dyDescent="0.25">
       <c r="J27">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -10212,7 +10214,7 @@
         <v>0.2913126124515909</v>
       </c>
     </row>
-    <row r="28" spans="10:64" x14ac:dyDescent="0.35">
+    <row r="28" spans="10:64" x14ac:dyDescent="0.25">
       <c r="J28">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -10242,7 +10244,7 @@
         <v>0.30950692121263851</v>
       </c>
     </row>
-    <row r="29" spans="10:64" x14ac:dyDescent="0.35">
+    <row r="29" spans="10:64" x14ac:dyDescent="0.25">
       <c r="J29">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -10272,7 +10274,7 @@
         <v>0.32747739480870541</v>
       </c>
     </row>
-    <row r="30" spans="10:64" x14ac:dyDescent="0.35">
+    <row r="30" spans="10:64" x14ac:dyDescent="0.25">
       <c r="J30">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -10302,7 +10304,7 @@
         <v>0.34521403413552082</v>
       </c>
     </row>
-    <row r="31" spans="10:64" x14ac:dyDescent="0.35">
+    <row r="31" spans="10:64" x14ac:dyDescent="0.25">
       <c r="J31">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -10332,7 +10334,7 @@
         <v>0.36270746757805111</v>
       </c>
     </row>
-    <row r="32" spans="10:64" x14ac:dyDescent="0.35">
+    <row r="32" spans="10:64" x14ac:dyDescent="0.25">
       <c r="J32">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -10362,7 +10364,7 @@
         <v>0.3799489622552249</v>
       </c>
     </row>
-    <row r="33" spans="10:57" x14ac:dyDescent="0.35">
+    <row r="33" spans="10:57" x14ac:dyDescent="0.25">
       <c r="J33">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -10392,7 +10394,7 @@
         <v>0.39693043200507755</v>
       </c>
     </row>
-    <row r="34" spans="10:57" x14ac:dyDescent="0.35">
+    <row r="34" spans="10:57" x14ac:dyDescent="0.25">
       <c r="J34">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -10422,7 +10424,7 @@
         <v>0.41364444218713514</v>
       </c>
     </row>
-    <row r="35" spans="10:57" x14ac:dyDescent="0.35">
+    <row r="35" spans="10:57" x14ac:dyDescent="0.25">
       <c r="J35">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -10452,7 +10454,7 @@
         <v>0.43008421140197955</v>
       </c>
     </row>
-    <row r="36" spans="10:57" x14ac:dyDescent="0.35">
+    <row r="36" spans="10:57" x14ac:dyDescent="0.25">
       <c r="J36">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -10482,7 +10484,7 @@
         <v>0.44624361024877962</v>
       </c>
     </row>
-    <row r="37" spans="10:57" x14ac:dyDescent="0.35">
+    <row r="37" spans="10:57" x14ac:dyDescent="0.25">
       <c r="J37">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -10512,7 +10514,7 @@
         <v>0.46211715726000979</v>
       </c>
     </row>
-    <row r="38" spans="10:57" x14ac:dyDescent="0.35">
+    <row r="38" spans="10:57" x14ac:dyDescent="0.25">
       <c r="O38">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -10534,7 +10536,7 @@
         <v>0.47770001216849806</v>
       </c>
     </row>
-    <row r="39" spans="10:57" x14ac:dyDescent="0.35">
+    <row r="39" spans="10:57" x14ac:dyDescent="0.25">
       <c r="O39">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -10556,7 +10558,7 @@
         <v>0.49298796667532446</v>
       </c>
     </row>
-    <row r="40" spans="10:57" x14ac:dyDescent="0.35">
+    <row r="40" spans="10:57" x14ac:dyDescent="0.25">
       <c r="BB40" s="1">
         <f t="shared" si="6"/>
         <v>28</v>
@@ -10570,7 +10572,7 @@
         <v>0.50797743289789621</v>
       </c>
     </row>
-    <row r="41" spans="10:57" x14ac:dyDescent="0.35">
+    <row r="41" spans="10:57" x14ac:dyDescent="0.25">
       <c r="BB41" s="1">
         <f t="shared" si="6"/>
         <v>29</v>
@@ -10584,7 +10586,7 @@
         <v>0.52266542968582086</v>
       </c>
     </row>
-    <row r="42" spans="10:57" x14ac:dyDescent="0.35">
+    <row r="42" spans="10:57" x14ac:dyDescent="0.25">
       <c r="BB42" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -10598,7 +10600,7 @@
         <v>0.5370495669980353</v>
       </c>
     </row>
-    <row r="43" spans="10:57" x14ac:dyDescent="0.35">
+    <row r="43" spans="10:57" x14ac:dyDescent="0.25">
       <c r="BB43" s="1">
         <f t="shared" si="6"/>
         <v>31</v>
@@ -10612,7 +10614,7 @@
         <v>0.55112802853814702</v>
       </c>
     </row>
-    <row r="44" spans="10:57" x14ac:dyDescent="0.35">
+    <row r="44" spans="10:57" x14ac:dyDescent="0.25">
       <c r="BB44" s="1">
         <f t="shared" si="6"/>
         <v>32</v>
@@ -10626,7 +10628,7 @@
         <v>0.56489955284622506</v>
       </c>
     </row>
-    <row r="45" spans="10:57" x14ac:dyDescent="0.35">
+    <row r="45" spans="10:57" x14ac:dyDescent="0.25">
       <c r="BB45" s="1">
         <f t="shared" si="6"/>
         <v>33</v>
@@ -10640,7 +10642,7 @@
         <v>0.57836341304450578</v>
       </c>
     </row>
-    <row r="46" spans="10:57" x14ac:dyDescent="0.35">
+    <row r="46" spans="10:57" x14ac:dyDescent="0.25">
       <c r="BB46" s="1">
         <f t="shared" si="6"/>
         <v>34</v>
@@ -10654,9 +10656,9 @@
         <v>0.59151939543181653</v>
       </c>
     </row>
-    <row r="47" spans="10:57" x14ac:dyDescent="0.35">
+    <row r="47" spans="10:57" x14ac:dyDescent="0.25">
       <c r="AN47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BB47" s="1">
         <f t="shared" si="6"/>
@@ -10671,7 +10673,7 @@
         <v>0.60436777711716361</v>
       </c>
     </row>
-    <row r="48" spans="10:57" x14ac:dyDescent="0.35">
+    <row r="48" spans="10:57" x14ac:dyDescent="0.25">
       <c r="BB48" s="1">
         <f t="shared" si="6"/>
         <v>36</v>
@@ -10685,7 +10687,7 @@
         <v>0.61690930287706502</v>
       </c>
     </row>
-    <row r="49" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="49" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB49" s="1">
         <f t="shared" si="6"/>
         <v>37</v>
@@ -10699,7 +10701,7 @@
         <v>0.62914516141403543</v>
       </c>
     </row>
-    <row r="50" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="50" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB50" s="1">
         <f t="shared" si="6"/>
         <v>38</v>
@@ -10713,7 +10715,7 @@
         <v>0.64107696118534641</v>
       </c>
     </row>
-    <row r="51" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="51" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB51" s="1">
         <f t="shared" si="6"/>
         <v>39</v>
@@ -10727,7 +10729,7 @@
         <v>0.65270670596198999</v>
       </c>
     </row>
-    <row r="52" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="52" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB52" s="1">
         <f t="shared" si="6"/>
         <v>40</v>
@@ -10741,7 +10743,7 @@
         <v>0.66403677026784891</v>
       </c>
     </row>
-    <row r="53" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="53" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB53" s="1">
         <f t="shared" si="6"/>
         <v>41</v>
@@ -10755,7 +10757,7 @@
         <v>0.67506987483860781</v>
       </c>
     </row>
-    <row r="54" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="54" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB54" s="1">
         <f t="shared" si="6"/>
         <v>42</v>
@@ -10769,7 +10771,7 @@
         <v>0.68580906222909455</v>
       </c>
     </row>
-    <row r="55" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="55" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB55" s="1">
         <f t="shared" si="6"/>
         <v>43</v>
@@ -10783,7 +10785,7 @@
         <v>0.69625767268668137</v>
       </c>
     </row>
-    <row r="56" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="56" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB56" s="1">
         <f t="shared" si="6"/>
         <v>44</v>
@@ -10797,7 +10799,7 @@
         <v>0.70641932039723521</v>
       </c>
     </row>
-    <row r="57" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="57" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB57" s="1">
         <f t="shared" si="6"/>
         <v>45</v>
@@ -10811,7 +10813,7 @@
         <v>0.71629787019902458</v>
       </c>
     </row>
-    <row r="58" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="58" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB58" s="1">
         <f t="shared" si="6"/>
         <v>46</v>
@@ -10825,7 +10827,7 @@
         <v>0.72589741484908077</v>
       </c>
     </row>
-    <row r="59" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="59" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB59" s="1">
         <f t="shared" si="6"/>
         <v>47</v>
@@ -10839,7 +10841,7 @@
         <v>0.73522225291586907</v>
       </c>
     </row>
-    <row r="60" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="60" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB60" s="1">
         <f t="shared" si="6"/>
         <v>48</v>
@@ -10853,7 +10855,7 @@
         <v>0.74427686736183729</v>
       </c>
     </row>
-    <row r="61" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="61" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB61" s="1">
         <f t="shared" si="6"/>
         <v>49</v>
@@ -10867,7 +10869,7 @@
         <v>0.75306590486955205</v>
       </c>
     </row>
-    <row r="62" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="62" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB62" s="1">
         <f t="shared" si="6"/>
         <v>50</v>
@@ -10881,7 +10883,7 @@
         <v>0.76159415595576485</v>
       </c>
     </row>
-    <row r="63" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="63" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB63" s="1">
         <f t="shared" si="6"/>
         <v>51</v>
@@ -10895,7 +10897,7 @@
         <v>0.76986653590890031</v>
       </c>
     </row>
-    <row r="64" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="64" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB64" s="1">
         <f t="shared" si="6"/>
         <v>52</v>
@@ -10909,7 +10911,7 @@
         <v>0.77788806657718479</v>
       </c>
     </row>
-    <row r="65" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="65" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB65" s="1">
         <f t="shared" si="6"/>
         <v>53</v>
@@ -10923,7 +10925,7 @@
         <v>0.78566385902694369</v>
       </c>
     </row>
-    <row r="66" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="66" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB66" s="1">
         <f t="shared" si="6"/>
         <v>54</v>
@@ -10937,7 +10939,7 @@
         <v>0.79319909708350078</v>
       </c>
     </row>
-    <row r="67" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="67" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB67" s="1">
         <f t="shared" si="6"/>
         <v>55</v>
@@ -10951,7 +10953,7 @@
         <v>0.8004990217606297</v>
       </c>
     </row>
-    <row r="68" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="68" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB68" s="1">
         <f t="shared" si="6"/>
         <v>56</v>
@@ -10965,7 +10967,7 @@
         <v>0.8075689165786144</v>
       </c>
     </row>
-    <row r="69" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="69" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB69" s="1">
         <f t="shared" si="6"/>
         <v>57</v>
@@ -10979,7 +10981,7 @@
         <v>0.81441409376568585</v>
       </c>
     </row>
-    <row r="70" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="70" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB70" s="1">
         <f t="shared" si="6"/>
         <v>58</v>
@@ -10993,7 +10995,7 @@
         <v>0.82103988133287698</v>
       </c>
     </row>
-    <row r="71" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="71" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB71" s="1">
         <f t="shared" si="6"/>
         <v>59</v>
@@ -11007,7 +11009,7 @@
         <v>0.82745161100816667</v>
       </c>
     </row>
-    <row r="72" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="72" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB72" s="1">
         <f t="shared" si="6"/>
         <v>60</v>
@@ -11021,7 +11023,7 @@
         <v>0.83365460701215521</v>
       </c>
     </row>
-    <row r="73" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="73" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB73" s="1">
         <f t="shared" si="6"/>
         <v>61</v>
@@ -11035,7 +11037,7 @@
         <v>0.83965417565437528</v>
       </c>
     </row>
-    <row r="74" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="74" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB74" s="1">
         <f t="shared" si="6"/>
         <v>62</v>
@@ -11049,7 +11051,7 @@
         <v>0.84545559572668028</v>
       </c>
     </row>
-    <row r="75" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="75" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB75" s="1">
         <f t="shared" si="6"/>
         <v>63</v>
@@ -11063,7 +11065,7 @@
         <v>0.85106410966794399</v>
       </c>
     </row>
-    <row r="76" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="76" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB76" s="1">
         <f t="shared" si="6"/>
         <v>64</v>
@@ -11077,7 +11079,7 @@
         <v>0.85648491547249728</v>
       </c>
     </row>
-    <row r="77" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="77" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB77" s="1">
         <f t="shared" si="6"/>
         <v>65</v>
@@ -11091,7 +11093,7 @@
         <v>0.86172315931330645</v>
       </c>
     </row>
-    <row r="78" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="78" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB78" s="1">
         <f t="shared" ref="BB78:BB141" si="9">BB77+1</f>
         <v>66</v>
@@ -11105,7 +11107,7 @@
         <v>0.8667839288498187</v>
       </c>
     </row>
-    <row r="79" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="79" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB79" s="1">
         <f t="shared" si="9"/>
         <v>67</v>
@@ -11119,7 +11121,7 @@
         <v>0.87167224718965208</v>
       </c>
     </row>
-    <row r="80" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="80" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB80" s="1">
         <f t="shared" si="9"/>
         <v>68</v>
@@ -11133,7 +11135,7 @@
         <v>0.87639306747282286</v>
       </c>
     </row>
-    <row r="81" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="81" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB81" s="1">
         <f t="shared" si="9"/>
         <v>69</v>
@@ -11147,7 +11149,7 @@
         <v>0.88095126804699697</v>
       </c>
     </row>
-    <row r="82" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="82" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB82" s="1">
         <f t="shared" si="9"/>
         <v>70</v>
@@ -11161,7 +11163,7 @@
         <v>0.88535164820226242</v>
       </c>
     </row>
-    <row r="83" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="83" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB83" s="1">
         <f t="shared" si="9"/>
         <v>71</v>
@@ -11175,7 +11177,7 @@
         <v>0.88959892443413136</v>
       </c>
     </row>
-    <row r="84" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="84" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB84" s="1">
         <f t="shared" si="9"/>
         <v>72</v>
@@ -11189,7 +11191,7 @@
         <v>0.89369772720387253</v>
       </c>
     </row>
-    <row r="85" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="85" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB85" s="1">
         <f t="shared" si="9"/>
         <v>73</v>
@@ -11203,7 +11205,7 @@
         <v>0.89765259816581688</v>
       </c>
     </row>
-    <row r="86" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="86" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB86" s="1">
         <f t="shared" si="9"/>
         <v>74</v>
@@ -11217,7 +11219,7 @@
         <v>0.9014679878319467</v>
       </c>
     </row>
-    <row r="87" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="87" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB87" s="1">
         <f t="shared" si="9"/>
         <v>75</v>
@@ -11231,7 +11233,7 @@
         <v>0.9051482536448664</v>
       </c>
     </row>
-    <row r="88" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="88" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB88" s="1">
         <f t="shared" si="9"/>
         <v>76</v>
@@ -11245,7 +11247,7 @@
         <v>0.90869765843111261</v>
       </c>
     </row>
-    <row r="89" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="89" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB89" s="1">
         <f t="shared" si="9"/>
         <v>77</v>
@@ -11259,7 +11261,7 @@
         <v>0.91212036920771722</v>
       </c>
     </row>
-    <row r="90" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="90" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB90" s="1">
         <f t="shared" si="9"/>
         <v>78</v>
@@ -11273,7 +11275,7 @@
         <v>0.91542045631593238</v>
       </c>
     </row>
-    <row r="91" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="91" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB91" s="1">
         <f t="shared" si="9"/>
         <v>79</v>
@@ -11287,7 +11289,7 @@
         <v>0.91860189285706695</v>
       </c>
     </row>
-    <row r="92" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="92" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB92" s="1">
         <f t="shared" si="9"/>
         <v>80</v>
@@ -11301,7 +11303,7 @@
         <v>0.92166855440647122</v>
       </c>
     </row>
-    <row r="93" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="93" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB93" s="1">
         <f t="shared" si="9"/>
         <v>81</v>
@@ -11315,7 +11317,7 @@
         <v>0.92462421898278824</v>
       </c>
     </row>
-    <row r="94" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="94" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB94" s="1">
         <f t="shared" si="9"/>
         <v>82</v>
@@ -11329,7 +11331,7 @@
         <v>0.92747256725070348</v>
       </c>
     </row>
-    <row r="95" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="95" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB95" s="1">
         <f t="shared" si="9"/>
         <v>83</v>
@@ -11343,7 +11345,7 @@
         <v>0.93021718293652611</v>
       </c>
     </row>
-    <row r="96" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="96" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB96" s="1">
         <f t="shared" si="9"/>
         <v>84</v>
@@ -11357,7 +11359,7 @@
         <v>0.93286155343703503</v>
       </c>
     </row>
-    <row r="97" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="97" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB97" s="1">
         <f t="shared" si="9"/>
         <v>85</v>
@@ -11371,7 +11373,7 @@
         <v>0.93540907060309908</v>
       </c>
     </row>
-    <row r="98" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="98" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB98" s="1">
         <f t="shared" si="9"/>
         <v>86</v>
@@ -11385,7 +11387,7 @@
         <v>0.93786303168066509</v>
       </c>
     </row>
-    <row r="99" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="99" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB99" s="1">
         <f t="shared" si="9"/>
         <v>87</v>
@@ -11399,7 +11401,7 @@
         <v>0.94022664039272752</v>
       </c>
     </row>
-    <row r="100" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="100" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB100" s="1">
         <f t="shared" si="9"/>
         <v>88</v>
@@ -11413,7 +11415,7 @@
         <v>0.9425030081469199</v>
       </c>
     </row>
-    <row r="101" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="101" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB101" s="1">
         <f t="shared" si="9"/>
         <v>89</v>
@@ -11427,7 +11429,7 @@
         <v>0.94469515535435389</v>
       </c>
     </row>
-    <row r="102" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="102" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB102" s="1">
         <f t="shared" si="9"/>
         <v>90</v>
@@ -11441,7 +11443,7 @@
         <v>0.9468060128462682</v>
       </c>
     </row>
-    <row r="103" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="103" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB103" s="1">
         <f t="shared" si="9"/>
         <v>91</v>
@@ -11455,7 +11457,7 @@
         <v>0.94883842337598456</v>
       </c>
     </row>
-    <row r="104" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="104" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB104" s="1">
         <f t="shared" si="9"/>
         <v>92</v>
@@ -11469,7 +11471,7 @@
         <v>0.95079514319452119</v>
       </c>
     </row>
-    <row r="105" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="105" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB105" s="1">
         <f t="shared" si="9"/>
         <v>93</v>
@@ -11483,7 +11485,7 @@
         <v>0.95267884368907774</v>
       </c>
     </row>
-    <row r="106" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="106" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB106" s="1">
         <f t="shared" si="9"/>
         <v>94</v>
@@ -11497,7 +11499,7 @@
         <v>0.95449211307439197</v>
       </c>
     </row>
-    <row r="107" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="107" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB107" s="1">
         <f t="shared" si="9"/>
         <v>95</v>
@@ -11511,7 +11513,7 @@
         <v>0.95623745812773897</v>
       </c>
     </row>
-    <row r="108" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="108" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB108" s="1">
         <f t="shared" si="9"/>
         <v>96</v>
@@ -11525,7 +11527,7 @@
         <v>0.95791730595906355</v>
       </c>
     </row>
-    <row r="109" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="109" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB109" s="1">
         <f t="shared" si="9"/>
         <v>97</v>
@@ -11539,7 +11541,7 @@
         <v>0.95953400580842918</v>
       </c>
     </row>
-    <row r="110" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="110" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB110" s="1">
         <f t="shared" si="9"/>
         <v>98</v>
@@ -11553,7 +11555,7 @@
         <v>0.96108983086361388</v>
       </c>
     </row>
-    <row r="111" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="111" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB111" s="1">
         <f t="shared" si="9"/>
         <v>99</v>
@@ -11567,7 +11569,7 @@
         <v>0.96258698009129084</v>
       </c>
     </row>
-    <row r="112" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="112" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB112" s="1">
         <f t="shared" si="9"/>
         <v>100</v>
@@ -11581,7 +11583,7 @@
         <v>0.96402758007581701</v>
       </c>
     </row>
-    <row r="113" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="113" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB113" s="1">
         <f t="shared" si="9"/>
         <v>101</v>
@@ -11595,7 +11597,7 @@
         <v>0.96541368686018914</v>
       </c>
     </row>
-    <row r="114" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="114" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB114" s="1">
         <f t="shared" si="9"/>
         <v>102</v>
@@ -11609,7 +11611,7 @@
         <v>0.9667472877842368</v>
       </c>
     </row>
-    <row r="115" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="115" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB115" s="1">
         <f t="shared" si="9"/>
         <v>103</v>
@@ -11623,7 +11625,7 @@
         <v>0.96803030331559492</v>
       </c>
     </row>
-    <row r="116" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="116" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB116" s="1">
         <f t="shared" si="9"/>
         <v>104</v>
@@ -11637,7 +11639,7 @@
         <v>0.96926458886944888</v>
       </c>
     </row>
-    <row r="117" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="117" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB117" s="1">
         <f t="shared" si="9"/>
         <v>105</v>
@@ -11651,7 +11653,7 @@
         <v>0.97045193661345408</v>
       </c>
     </row>
-    <row r="118" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="118" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB118" s="1">
         <f t="shared" si="9"/>
         <v>106</v>
@@ -11665,7 +11667,7 @@
         <v>0.97159407725461766</v>
       </c>
     </row>
-    <row r="119" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="119" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB119" s="1">
         <f t="shared" si="9"/>
         <v>107</v>
@@ -11679,7 +11681,7 @@
         <v>0.97269268180529833</v>
       </c>
     </row>
-    <row r="120" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="120" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB120" s="1">
         <f t="shared" si="9"/>
         <v>108</v>
@@ -11693,7 +11695,7 @@
         <v>0.97374936332579454</v>
       </c>
     </row>
-    <row r="121" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="121" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB121" s="1">
         <f t="shared" si="9"/>
         <v>109</v>
@@ -11707,7 +11709,7 @@
         <v>0.97476567864132269</v>
       </c>
     </row>
-    <row r="122" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="122" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB122" s="1">
         <f t="shared" si="9"/>
         <v>110</v>
@@ -11721,7 +11723,7 @@
         <v>0.97574313003145152</v>
       </c>
     </row>
-    <row r="123" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="123" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB123" s="1">
         <f t="shared" si="9"/>
         <v>111</v>
@@ -11735,7 +11737,7 @@
         <v>0.97668316689033396</v>
       </c>
     </row>
-    <row r="124" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="124" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB124" s="1">
         <f t="shared" si="9"/>
         <v>112</v>
@@ -11749,7 +11751,7 @@
         <v>0.97758718735631422</v>
       </c>
     </row>
-    <row r="125" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="125" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB125" s="1">
         <f t="shared" si="9"/>
         <v>113</v>
@@ -11763,7 +11765,7 @@
         <v>0.97845653990971682</v>
       </c>
     </row>
-    <row r="126" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="126" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB126" s="1">
         <f t="shared" si="9"/>
         <v>114</v>
@@ -11777,7 +11779,7 @@
         <v>0.97929252493781638</v>
       </c>
     </row>
-    <row r="127" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="127" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB127" s="1">
         <f t="shared" si="9"/>
         <v>115</v>
@@ -11791,7 +11793,7 @@
         <v>0.98009639626619138</v>
       </c>
     </row>
-    <row r="128" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="128" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB128" s="1">
         <f t="shared" si="9"/>
         <v>116</v>
@@ -11805,7 +11807,7 @@
         <v>0.98086936265581648</v>
       </c>
     </row>
-    <row r="129" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="129" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB129" s="1">
         <f t="shared" si="9"/>
         <v>117</v>
@@ -11819,7 +11821,7 @@
         <v>0.98161258926542383</v>
       </c>
     </row>
-    <row r="130" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="130" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB130" s="1">
         <f t="shared" si="9"/>
         <v>118</v>
@@ -11833,7 +11835,7 @@
         <v>0.98232719907878463</v>
       </c>
     </row>
-    <row r="131" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="131" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB131" s="1">
         <f t="shared" si="9"/>
         <v>119</v>
@@ -11847,7 +11849,7 @@
         <v>0.9830142742967114</v>
       </c>
     </row>
-    <row r="132" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="132" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB132" s="1">
         <f t="shared" si="9"/>
         <v>120</v>
@@ -11861,7 +11863,7 @@
         <v>0.98367485769368002</v>
       </c>
     </row>
-    <row r="133" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="133" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB133" s="1">
         <f t="shared" si="9"/>
         <v>121</v>
@@ -11875,7 +11877,7 @@
         <v>0.98430995393908882</v>
       </c>
     </row>
-    <row r="134" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="134" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB134" s="1">
         <f t="shared" si="9"/>
         <v>122</v>
@@ -11889,7 +11891,7 @@
         <v>0.98492053088325326</v>
       </c>
     </row>
-    <row r="135" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="135" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB135" s="1">
         <f t="shared" si="9"/>
         <v>123</v>
@@ -11903,7 +11905,7 @@
         <v>0.98550752080833703</v>
       </c>
     </row>
-    <row r="136" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="136" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB136" s="1">
         <f t="shared" si="9"/>
         <v>124</v>
@@ -11917,7 +11919,7 @@
         <v>0.98607182164447582</v>
       </c>
     </row>
-    <row r="137" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="137" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB137" s="1">
         <f t="shared" si="9"/>
         <v>125</v>
@@ -11931,7 +11933,7 @@
         <v>0.98661429815143042</v>
       </c>
     </row>
-    <row r="138" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="138" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB138" s="1">
         <f t="shared" si="9"/>
         <v>126</v>
@@ -11945,7 +11947,7 @@
         <v>0.98713578306616279</v>
       </c>
     </row>
-    <row r="139" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="139" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB139" s="1">
         <f t="shared" si="9"/>
         <v>127</v>
@@ -11959,7 +11961,7 @@
         <v>0.98763707821677771</v>
       </c>
     </row>
-    <row r="140" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="140" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB140" s="1">
         <f t="shared" si="9"/>
         <v>128</v>
@@ -11973,7 +11975,7 @@
         <v>0.9881189556033193</v>
       </c>
     </row>
-    <row r="141" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="141" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB141" s="1">
         <f t="shared" si="9"/>
         <v>129</v>
@@ -11987,7 +11989,7 @@
         <v>0.98858215844595332</v>
       </c>
     </row>
-    <row r="142" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="142" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB142" s="1">
         <f t="shared" ref="BB142:BB205" si="12">BB141+1</f>
         <v>130</v>
@@ -12001,7 +12003,7 @@
         <v>0.9890274022010993</v>
       </c>
     </row>
-    <row r="143" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="143" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB143" s="1">
         <f t="shared" si="12"/>
         <v>131</v>
@@ -12015,7 +12017,7 @@
         <v>0.98945537554610263</v>
       </c>
     </row>
-    <row r="144" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="144" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB144" s="1">
         <f t="shared" si="12"/>
         <v>132</v>
@@ -12029,7 +12031,7 @@
         <v>0.98986674133306751</v>
       </c>
     </row>
-    <row r="145" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="145" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB145" s="1">
         <f t="shared" si="12"/>
         <v>133</v>
@@ -12043,7 +12045,7 @@
         <v>0.99026213751248282</v>
       </c>
     </row>
-    <row r="146" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="146" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB146" s="1">
         <f t="shared" si="12"/>
         <v>134</v>
@@ -12057,7 +12059,7 @@
         <v>0.99064217802729859</v>
       </c>
     </row>
-    <row r="147" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="147" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB147" s="1">
         <f t="shared" si="12"/>
         <v>135</v>
@@ -12071,7 +12073,7 @@
         <v>0.99100745367811749</v>
       </c>
     </row>
-    <row r="148" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="148" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB148" s="1">
         <f t="shared" si="12"/>
         <v>136</v>
@@ -12085,7 +12087,7 @@
         <v>0.99135853296017618</v>
       </c>
     </row>
-    <row r="149" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="149" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB149" s="1">
         <f t="shared" si="12"/>
         <v>137</v>
@@ -12099,7 +12101,7 @@
         <v>0.99169596287279871</v>
       </c>
     </row>
-    <row r="150" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="150" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB150" s="1">
         <f t="shared" si="12"/>
         <v>138</v>
@@ -12113,7 +12115,7 @@
         <v>0.99202026970201185</v>
       </c>
     </row>
-    <row r="151" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="151" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB151" s="1">
         <f t="shared" si="12"/>
         <v>139</v>
@@ -12127,7 +12129,7 @@
         <v>0.99233195977700506</v>
       </c>
     </row>
-    <row r="152" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="152" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB152" s="1">
         <f t="shared" si="12"/>
         <v>140</v>
@@ -12141,7 +12143,7 @@
         <v>0.99263152020112788</v>
       </c>
     </row>
-    <row r="153" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="153" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB153" s="1">
         <f t="shared" si="12"/>
         <v>141</v>
@@ -12155,7 +12157,7 @@
         <v>0.99291941955810714</v>
       </c>
     </row>
-    <row r="154" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="154" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB154" s="1">
         <f t="shared" si="12"/>
         <v>142</v>
@@ -12169,7 +12171,7 @@
         <v>0.99319610859416563</v>
       </c>
     </row>
-    <row r="155" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="155" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB155" s="1">
         <f t="shared" si="12"/>
         <v>143</v>
@@ -12183,7 +12185,7 @@
         <v>0.99346202087672264</v>
       </c>
     </row>
-    <row r="156" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="156" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB156" s="1">
         <f t="shared" si="12"/>
         <v>144</v>
@@ -12197,7 +12199,7 @@
         <v>0.99371757343034117</v>
       </c>
     </row>
-    <row r="157" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="157" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB157" s="1">
         <f t="shared" si="12"/>
         <v>145</v>
@@ -12211,7 +12213,7 @@
         <v>0.99396316735058299</v>
       </c>
     </row>
-    <row r="158" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="158" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB158" s="1">
         <f t="shared" si="12"/>
         <v>146</v>
@@ -12225,7 +12227,7 @@
         <v>0.9941991883964314</v>
       </c>
     </row>
-    <row r="159" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="159" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB159" s="1">
         <f t="shared" si="12"/>
         <v>147</v>
@@ -12239,7 +12241,7 @@
         <v>0.99442600756191546</v>
       </c>
     </row>
-    <row r="160" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="160" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB160" s="1">
         <f t="shared" si="12"/>
         <v>148</v>
@@ -12253,7 +12255,7 @@
         <v>0.99464398162757395</v>
       </c>
     </row>
-    <row r="161" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="161" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB161" s="1">
         <f t="shared" si="12"/>
         <v>149</v>
@@ -12267,7 +12269,7 @@
         <v>0.9948534536923791</v>
       </c>
     </row>
-    <row r="162" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="162" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB162" s="1">
         <f t="shared" si="12"/>
         <v>150</v>
@@ -12281,7 +12283,7 @@
         <v>0.99505475368673058</v>
       </c>
     </row>
-    <row r="163" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="163" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB163" s="1">
         <f t="shared" si="12"/>
         <v>151</v>
@@ -12295,7 +12297,7 @@
         <v>0.99524819886711013</v>
       </c>
     </row>
-    <row r="164" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="164" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB164" s="1">
         <f t="shared" si="12"/>
         <v>152</v>
@@ -12309,7 +12311,7 @@
         <v>0.99543409429299401</v>
       </c>
     </row>
-    <row r="165" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="165" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB165" s="1">
         <f t="shared" si="12"/>
         <v>153</v>
@@ -12323,7 +12325,7 @@
         <v>0.9956127332865824</v>
       </c>
     </row>
-    <row r="166" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="166" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB166" s="1">
         <f t="shared" si="12"/>
         <v>154</v>
@@ -12337,7 +12339,7 @@
         <v>0.99578439787591344</v>
       </c>
     </row>
-    <row r="167" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="167" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB167" s="1">
         <f t="shared" si="12"/>
         <v>155</v>
@@ -12351,7 +12353,7 @@
         <v>0.99594935922190031</v>
       </c>
     </row>
-    <row r="168" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="168" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB168" s="1">
         <f t="shared" si="12"/>
         <v>156</v>
@@ -12365,7 +12367,7 @@
         <v>0.9961078780298287</v>
       </c>
     </row>
-    <row r="169" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="169" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB169" s="1">
         <f t="shared" si="12"/>
         <v>157</v>
@@ -12379,7 +12381,7 @@
         <v>0.9962602049458319</v>
       </c>
     </row>
-    <row r="170" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="170" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB170" s="1">
         <f t="shared" si="12"/>
         <v>158</v>
@@ -12393,7 +12395,7 @@
         <v>0.99640658093884316</v>
       </c>
     </row>
-    <row r="171" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="171" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB171" s="1">
         <f t="shared" si="12"/>
         <v>159</v>
@@ -12407,7 +12409,7 @@
         <v>0.9965472376685256</v>
       </c>
     </row>
-    <row r="172" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="172" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB172" s="1">
         <f t="shared" si="12"/>
         <v>160</v>
@@ -12421,7 +12423,7 @@
         <v>0.99668239783965107</v>
       </c>
     </row>
-    <row r="173" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="173" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB173" s="1">
         <f t="shared" si="12"/>
         <v>161</v>
@@ -12435,7 +12437,7 @@
         <v>0.99681227554339413</v>
       </c>
     </row>
-    <row r="174" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="174" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB174" s="1">
         <f t="shared" si="12"/>
         <v>162</v>
@@ -12449,7 +12451,7 @@
         <v>0.9969370765859934</v>
       </c>
     </row>
-    <row r="175" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="175" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB175" s="1">
         <f t="shared" si="12"/>
         <v>163</v>
@@ -12463,7 +12465,7 @@
         <v>0.99705699880522092</v>
       </c>
     </row>
-    <row r="176" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="176" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB176" s="1">
         <f t="shared" si="12"/>
         <v>164</v>
@@ -12477,7 +12479,7 @@
         <v>0.99717223237507857</v>
       </c>
     </row>
-    <row r="177" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="177" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB177" s="1">
         <f t="shared" si="12"/>
         <v>165</v>
@@ -12491,7 +12493,7 @@
         <v>0.99728296009914219</v>
       </c>
     </row>
-    <row r="178" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="178" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB178" s="1">
         <f t="shared" si="12"/>
         <v>166</v>
@@ -12505,7 +12507,7 @@
         <v>0.99738935769294657</v>
       </c>
     </row>
-    <row r="179" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="179" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB179" s="1">
         <f t="shared" si="12"/>
         <v>167</v>
@@ -12519,7 +12521,7 @@
         <v>0.99749159405580634</v>
       </c>
     </row>
-    <row r="180" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="180" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB180" s="1">
         <f t="shared" si="12"/>
         <v>168</v>
@@ -12533,7 +12535,7 @@
         <v>0.99758983153244207</v>
       </c>
     </row>
-    <row r="181" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="181" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB181" s="1">
         <f t="shared" si="12"/>
         <v>169</v>
@@ -12547,7 +12549,7 @@
         <v>0.99768422616478092</v>
       </c>
     </row>
-    <row r="182" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="182" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB182" s="1">
         <f t="shared" si="12"/>
         <v>170</v>
@@ -12561,7 +12563,7 @@
         <v>0.99777492793427935</v>
       </c>
     </row>
-    <row r="183" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="183" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB183" s="1">
         <f t="shared" si="12"/>
         <v>171</v>
@@ -12575,7 +12577,7 @@
         <v>0.9978620809951162</v>
       </c>
     </row>
-    <row r="184" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="184" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB184" s="1">
         <f t="shared" si="12"/>
         <v>172</v>
@@ -12589,7 +12591,7 @@
         <v>0.997945823898577</v>
       </c>
     </row>
-    <row r="185" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="185" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB185" s="1">
         <f t="shared" si="12"/>
         <v>173</v>
@@ -12603,7 +12605,7 @@
         <v>0.99802628980895802</v>
       </c>
     </row>
-    <row r="186" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="186" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB186" s="1">
         <f t="shared" si="12"/>
         <v>174</v>
@@ -12617,7 +12619,7 @@
         <v>0.99810360671129239</v>
       </c>
     </row>
-    <row r="187" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="187" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB187" s="1">
         <f t="shared" si="12"/>
         <v>175</v>
@@ -12631,7 +12633,7 @@
         <v>0.99817789761119868</v>
       </c>
     </row>
-    <row r="188" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="188" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB188" s="1">
         <f t="shared" si="12"/>
         <v>176</v>
@@ -12645,7 +12647,7 @@
         <v>0.9982492807271417</v>
       </c>
     </row>
-    <row r="189" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="189" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB189" s="1">
         <f t="shared" si="12"/>
         <v>177</v>
@@ -12659,7 +12661,7 @@
         <v>0.99831786967538227</v>
       </c>
     </row>
-    <row r="190" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="190" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB190" s="1">
         <f t="shared" si="12"/>
         <v>178</v>
@@ -12673,7 +12675,7 @@
         <v>0.99838377364788755</v>
       </c>
     </row>
-    <row r="191" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="191" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB191" s="1">
         <f t="shared" si="12"/>
         <v>179</v>
@@ -12687,7 +12689,7 @@
         <v>0.99844709758345851</v>
       </c>
     </row>
-    <row r="192" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="192" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB192" s="1">
         <f t="shared" si="12"/>
         <v>180</v>
@@ -12701,7 +12703,7 @@
         <v>0.99850794233232665</v>
       </c>
     </row>
-    <row r="193" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="193" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB193" s="1">
         <f t="shared" si="12"/>
         <v>181</v>
@@ -12715,7 +12717,7 @@
         <v>0.99856640481446723</v>
       </c>
     </row>
-    <row r="194" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="194" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB194" s="1">
         <f t="shared" si="12"/>
         <v>182</v>
@@ -12729,7 +12731,7 @@
         <v>0.99862257817185351</v>
       </c>
     </row>
-    <row r="195" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="195" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB195" s="1">
         <f t="shared" si="12"/>
         <v>183</v>
@@ -12743,7 +12745,7 @@
         <v>0.99867655191488602</v>
       </c>
     </row>
-    <row r="196" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="196" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB196" s="1">
         <f t="shared" si="12"/>
         <v>184</v>
@@ -12757,7 +12759,7 @@
         <v>0.99872841206320939</v>
       </c>
     </row>
-    <row r="197" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="197" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB197" s="1">
         <f t="shared" si="12"/>
         <v>185</v>
@@ -12771,7 +12773,7 @@
         <v>0.99877824128113124</v>
       </c>
     </row>
-    <row r="198" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="198" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB198" s="1">
         <f t="shared" si="12"/>
         <v>186</v>
@@ -12785,7 +12787,7 @@
         <v>0.99882611900783846</v>
       </c>
     </row>
-    <row r="199" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="199" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB199" s="1">
         <f t="shared" si="12"/>
         <v>187</v>
@@ -12799,7 +12801,7 @@
         <v>0.99887212158261562</v>
       </c>
     </row>
-    <row r="200" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="200" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB200" s="1">
         <f t="shared" si="12"/>
         <v>188</v>
@@ -12813,7 +12815,7 @@
         <v>0.9989163223652453</v>
       </c>
     </row>
-    <row r="201" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="201" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB201" s="1">
         <f t="shared" si="12"/>
         <v>189</v>
@@ -12827,7 +12829,7 @@
         <v>0.99895879185177816</v>
       </c>
     </row>
-    <row r="202" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="202" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB202" s="1">
         <f t="shared" si="12"/>
         <v>190</v>
@@ -12841,7 +12843,7 @@
         <v>0.9989995977858408</v>
       </c>
     </row>
-    <row r="203" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="203" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB203" s="1">
         <f t="shared" si="12"/>
         <v>191</v>
@@ -12855,7 +12857,7 @@
         <v>0.99903880526565947</v>
       </c>
     </row>
-    <row r="204" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="204" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB204" s="1">
         <f t="shared" si="12"/>
         <v>192</v>
@@ -12869,7 +12871,7 @@
         <v>0.99907647684695178</v>
       </c>
     </row>
-    <row r="205" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="205" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB205" s="1">
         <f t="shared" si="12"/>
         <v>193</v>
@@ -12883,7 +12885,7 @@
         <v>0.99911267264185133</v>
       </c>
     </row>
-    <row r="206" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="206" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB206" s="1">
         <f t="shared" ref="BB206:BB262" si="15">BB205+1</f>
         <v>194</v>
@@ -12897,7 +12899,7 @@
         <v>0.9991474504140101</v>
       </c>
     </row>
-    <row r="207" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="207" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB207" s="1">
         <f t="shared" si="15"/>
         <v>195</v>
@@ -12911,7 +12913,7 @@
         <v>0.99918086567002806</v>
       </c>
     </row>
-    <row r="208" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="208" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB208" s="1">
         <f t="shared" si="15"/>
         <v>196</v>
@@ -12925,7 +12927,7 @@
         <v>0.99921297174734702</v>
       </c>
     </row>
-    <row r="209" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="209" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB209" s="1">
         <f t="shared" si="15"/>
         <v>197</v>
@@ -12939,7 +12941,7 @@
         <v>0.99924381989874578</v>
       </c>
     </row>
-    <row r="210" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="210" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB210" s="1">
         <f t="shared" si="15"/>
         <v>198</v>
@@ -12953,7 +12955,7 @@
         <v>0.99927345937356382</v>
       </c>
     </row>
-    <row r="211" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="211" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB211" s="1">
         <f t="shared" si="15"/>
         <v>199</v>
@@ -12967,7 +12969,7 @@
         <v>0.99930193749577989</v>
       </c>
     </row>
-    <row r="212" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="212" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB212" s="1">
         <f t="shared" si="15"/>
         <v>200</v>
@@ -12981,7 +12983,7 @@
         <v>0.99932929973906692</v>
       </c>
     </row>
-    <row r="213" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="213" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB213" s="1">
         <f t="shared" si="15"/>
         <v>201</v>
@@ -12995,7 +12997,7 @@
         <v>0.99935558979893724</v>
       </c>
     </row>
-    <row r="214" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="214" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB214" s="1">
         <f t="shared" si="15"/>
         <v>202</v>
@@ -13009,7 +13011,7 @@
         <v>0.99938084966208895</v>
       </c>
     </row>
-    <row r="215" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="215" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB215" s="1">
         <f t="shared" si="15"/>
         <v>203</v>
@@ -13023,7 +13025,7 @@
         <v>0.99940511967306356</v>
       </c>
     </row>
-    <row r="216" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="216" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB216" s="1">
         <f t="shared" si="15"/>
         <v>204</v>
@@ -13037,7 +13039,7 @@
         <v>0.9994284385983162</v>
       </c>
     </row>
-    <row r="217" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="217" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB217" s="1">
         <f t="shared" si="15"/>
         <v>205</v>
@@ -13051,7 +13053,7 @@
         <v>0.99945084368779735</v>
       </c>
     </row>
-    <row r="218" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="218" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB218" s="1">
         <f t="shared" si="15"/>
         <v>206</v>
@@ -13065,7 +13067,7 @@
         <v>0.9994723707341433</v>
       </c>
     </row>
-    <row r="219" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="219" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB219" s="1">
         <f t="shared" si="15"/>
         <v>207</v>
@@ -13079,7 +13081,7 @@
         <v>0.99949305412956702</v>
       </c>
     </row>
-    <row r="220" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="220" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB220" s="1">
         <f t="shared" si="15"/>
         <v>208</v>
@@ -13093,7 +13095,7 @@
         <v>0.99951292692053662</v>
       </c>
     </row>
-    <row r="221" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="221" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB221" s="1">
         <f t="shared" si="15"/>
         <v>209</v>
@@ -13107,7 +13109,7 @@
         <v>0.99953202086032766</v>
       </c>
     </row>
-    <row r="222" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="222" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB222" s="1">
         <f t="shared" si="15"/>
         <v>210</v>
@@ -13121,7 +13123,7 @@
         <v>0.99955036645953332</v>
       </c>
     </row>
-    <row r="223" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="223" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB223" s="1">
         <f t="shared" si="15"/>
         <v>211</v>
@@ -13135,7 +13137,7 @@
         <v>0.99956799303460675</v>
       </c>
     </row>
-    <row r="224" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="224" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB224" s="1">
         <f t="shared" si="15"/>
         <v>212</v>
@@ -13149,7 +13151,7 @@
         <v>0.99958492875451532</v>
       </c>
     </row>
-    <row r="225" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="225" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB225" s="1">
         <f t="shared" si="15"/>
         <v>213</v>
@@ -13163,7 +13165,7 @@
         <v>0.99960120068557801</v>
       </c>
     </row>
-    <row r="226" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="226" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB226" s="1">
         <f t="shared" si="15"/>
         <v>214</v>
@@ -13177,7 +13179,7 @@
         <v>0.99961683483455754</v>
       </c>
     </row>
-    <row r="227" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="227" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB227" s="1">
         <f t="shared" si="15"/>
         <v>215</v>
@@ -13191,7 +13193,7 @@
         <v>0.99963185619007322</v>
       </c>
     </row>
-    <row r="228" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="228" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB228" s="1">
         <f t="shared" si="15"/>
         <v>216</v>
@@ -13205,7 +13207,7 @@
         <v>0.99964628876239991</v>
       </c>
     </row>
-    <row r="229" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="229" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB229" s="1">
         <f t="shared" si="15"/>
         <v>217</v>
@@ -13219,7 +13221,7 @@
         <v>0.99966015562171673</v>
       </c>
     </row>
-    <row r="230" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="230" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB230" s="1">
         <f t="shared" si="15"/>
         <v>218</v>
@@ -13233,7 +13235,7 @@
         <v>0.99967347893486391</v>
       </c>
     </row>
-    <row r="231" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="231" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB231" s="1">
         <f t="shared" si="15"/>
         <v>219</v>
@@ -13247,7 +13249,7 @@
         <v>0.99968628000066617</v>
       </c>
     </row>
-    <row r="232" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="232" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB232" s="1">
         <f t="shared" si="15"/>
         <v>220</v>
@@ -13261,7 +13263,7 @@
         <v>0.99969857928388062</v>
       </c>
     </row>
-    <row r="233" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="233" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB233" s="1">
         <f t="shared" si="15"/>
         <v>221</v>
@@ -13275,7 +13277,7 @@
         <v>0.99971039644781656</v>
       </c>
     </row>
-    <row r="234" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="234" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB234" s="1">
         <f t="shared" si="15"/>
         <v>222</v>
@@ -13289,7 +13291,7 @@
         <v>0.99972175038568678</v>
       </c>
     </row>
-    <row r="235" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="235" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB235" s="1">
         <f t="shared" si="15"/>
         <v>223</v>
@@ -13303,7 +13305,7 @@
         <v>0.99973265925073274</v>
       </c>
     </row>
-    <row r="236" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="236" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB236" s="1">
         <f t="shared" si="15"/>
         <v>224</v>
@@ -13317,7 +13319,7 @@
         <v>0.99974314048517354</v>
       </c>
     </row>
-    <row r="237" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="237" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB237" s="1">
         <f t="shared" si="15"/>
         <v>225</v>
@@ -13331,7 +13333,7 @@
         <v>0.9997532108480276</v>
       </c>
     </row>
-    <row r="238" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="238" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB238" s="1">
         <f t="shared" si="15"/>
         <v>226</v>
@@ -13345,7 +13347,7 @@
         <v>0.9997628864418443</v>
       </c>
     </row>
-    <row r="239" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="239" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB239" s="1">
         <f t="shared" si="15"/>
         <v>227</v>
@@ -13359,7 +13361,7 @@
         <v>0.99977218273839508</v>
       </c>
     </row>
-    <row r="240" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="240" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB240" s="1">
         <f t="shared" si="15"/>
         <v>228</v>
@@ -13373,7 +13375,7 @@
         <v>0.99978111460335883</v>
       </c>
     </row>
-    <row r="241" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="241" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB241" s="1">
         <f t="shared" si="15"/>
         <v>229</v>
@@ -13387,7 +13389,7 @@
         <v>0.99978969632004444</v>
       </c>
     </row>
-    <row r="242" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="242" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB242" s="1">
         <f t="shared" si="15"/>
         <v>230</v>
@@ -13401,7 +13403,7 @@
         <v>0.99979794161218449</v>
       </c>
     </row>
-    <row r="243" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="243" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB243" s="1">
         <f t="shared" si="15"/>
         <v>231</v>
@@ -13415,7 +13417,7 @@
         <v>0.9998058636658409</v>
       </c>
     </row>
-    <row r="244" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="244" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB244" s="1">
         <f t="shared" si="15"/>
         <v>232</v>
@@ -13429,7 +13431,7 @@
         <v>0.99981347515045249</v>
       </c>
     </row>
-    <row r="245" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="245" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB245" s="1">
         <f t="shared" si="15"/>
         <v>233</v>
@@ -13443,7 +13445,7 @@
         <v>0.99982078823906084</v>
       </c>
     </row>
-    <row r="246" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="246" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB246" s="1">
         <f t="shared" si="15"/>
         <v>234</v>
@@ -13457,7 +13459,7 @@
         <v>0.99982781462774484</v>
       </c>
     </row>
-    <row r="247" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="247" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB247" s="1">
         <f t="shared" si="15"/>
         <v>235</v>
@@ -13471,7 +13473,7 @@
         <v>0.99983456555429673</v>
       </c>
     </row>
-    <row r="248" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="248" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB248" s="1">
         <f t="shared" si="15"/>
         <v>236</v>
@@ -13485,7 +13487,7 @@
         <v>0.99984105181616556</v>
       </c>
     </row>
-    <row r="249" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="249" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB249" s="1">
         <f t="shared" si="15"/>
         <v>237</v>
@@ -13499,7 +13501,7 @@
         <v>0.99984728378770138</v>
       </c>
     </row>
-    <row r="250" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="250" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB250" s="1">
         <f t="shared" si="15"/>
         <v>238</v>
@@ -13513,7 +13515,7 @@
         <v>0.99985327143672453</v>
       </c>
     </row>
-    <row r="251" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="251" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB251" s="1">
         <f t="shared" si="15"/>
         <v>239</v>
@@ -13527,7 +13529,7 @@
         <v>0.9998590243404446</v>
       </c>
     </row>
-    <row r="252" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="252" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB252" s="1">
         <f t="shared" si="15"/>
         <v>240</v>
@@ -13541,7 +13543,7 @@
         <v>0.9998645517007605</v>
       </c>
     </row>
-    <row r="253" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="253" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB253" s="1">
         <f t="shared" si="15"/>
         <v>241</v>
@@ -13555,7 +13557,7 @@
         <v>0.99986986235895869</v>
       </c>
     </row>
-    <row r="254" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="254" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB254" s="1">
         <f t="shared" si="15"/>
         <v>242</v>
@@ -13569,7 +13571,7 @@
         <v>0.9998749648098384</v>
       </c>
     </row>
-    <row r="255" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="255" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB255" s="1">
         <f t="shared" si="15"/>
         <v>243</v>
@@ -13583,7 +13585,7 @@
         <v>0.99987986721528299</v>
       </c>
     </row>
-    <row r="256" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="256" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB256" s="1">
         <f t="shared" si="15"/>
         <v>244</v>
@@ -13597,7 +13599,7 @@
         <v>0.99988457741730052</v>
       </c>
     </row>
-    <row r="257" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="257" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB257" s="1">
         <f t="shared" si="15"/>
         <v>245</v>
@@ -13611,7 +13613,7 @@
         <v>0.99988910295055433</v>
       </c>
     </row>
-    <row r="258" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="258" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB258" s="1">
         <f t="shared" si="15"/>
         <v>246</v>
@@ -13625,7 +13627,7 @@
         <v>0.99989345105440441</v>
       </c>
     </row>
-    <row r="259" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="259" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB259" s="1">
         <f t="shared" si="15"/>
         <v>247</v>
@@ -13639,7 +13641,7 @@
         <v>0.99989762868447296</v>
       </c>
     </row>
-    <row r="260" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="260" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB260" s="1">
         <f t="shared" si="15"/>
         <v>248</v>
@@ -13653,7 +13655,7 @@
         <v>0.99990164252376423</v>
       </c>
     </row>
-    <row r="261" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="261" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB261" s="1">
         <f t="shared" si="15"/>
         <v>249</v>
@@ -13667,7 +13669,7 @@
         <v>0.99990549899334236</v>
       </c>
     </row>
-    <row r="262" spans="54:57" x14ac:dyDescent="0.35">
+    <row r="262" spans="54:57" x14ac:dyDescent="0.25">
       <c r="BB262" s="1">
         <f t="shared" si="15"/>
         <v>250</v>
@@ -13704,24 +13706,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6396C3E5-BB60-4F9F-B4C7-D4535EBE9516}">
   <dimension ref="B2:Y49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="5" max="5" width="27.1796875" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" customWidth="1"/>
-    <col min="11" max="11" width="10.7265625" customWidth="1"/>
-    <col min="13" max="13" width="15.1796875" customWidth="1"/>
-    <col min="15" max="15" width="12.1796875" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
       <c r="Q2" t="s">
         <v>20</v>
       </c>
@@ -13735,7 +13737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="P3" t="s">
         <v>15</v>
       </c>
@@ -13752,7 +13754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="E4" s="4"/>
       <c r="F4" s="1"/>
       <c r="L4" s="2" t="s">
@@ -13774,7 +13776,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -13807,7 +13809,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -13840,7 +13842,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -13876,7 +13878,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="H8" s="2">
         <v>1</v>
       </c>
@@ -13897,7 +13899,7 @@
         <v>0.60140833448138065</v>
       </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -13924,7 +13926,7 @@
         <v>0.48309046417552431</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="H10" s="2">
         <v>3</v>
       </c>
@@ -13945,7 +13947,7 @@
         <v>0.39580889678530234</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="H11" s="2">
         <v>4</v>
       </c>
@@ -13966,7 +13968,7 @@
         <v>0.33040475708583444</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="H12" s="2">
         <v>5</v>
       </c>
@@ -13987,7 +13989,7 @@
         <v>0.28060215912624697</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="H13" s="2">
         <v>6</v>
       </c>
@@ -14017,7 +14019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="H14" s="2">
         <v>7</v>
       </c>
@@ -14049,7 +14051,7 @@
         <v>1.2799999999999999E-5</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="H15" s="2">
         <v>8</v>
       </c>
@@ -14082,7 +14084,7 @@
       </c>
       <c r="Y15" s="6"/>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="H16" s="2">
         <v>9</v>
       </c>
@@ -14115,7 +14117,7 @@
       </c>
       <c r="Y16" s="6"/>
     </row>
-    <row r="17" spans="8:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H17" s="2">
         <v>10</v>
       </c>
@@ -14147,7 +14149,7 @@
         <v>8.7099476275120214E-5</v>
       </c>
     </row>
-    <row r="18" spans="8:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:18" x14ac:dyDescent="0.25">
       <c r="P18">
         <v>4</v>
       </c>
@@ -14160,7 +14162,7 @@
         <v>1.6505071180051713E-4</v>
       </c>
     </row>
-    <row r="19" spans="8:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H19" s="2" t="s">
         <v>6</v>
       </c>
@@ -14184,7 +14186,7 @@
         <v>3.1276580102283466E-4</v>
       </c>
     </row>
-    <row r="20" spans="8:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="8:18" x14ac:dyDescent="0.25">
       <c r="P20">
         <v>6</v>
       </c>
@@ -14197,7 +14199,7 @@
         <v>5.9268115370314295E-4</v>
       </c>
     </row>
-    <row r="21" spans="8:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="8:18" x14ac:dyDescent="0.25">
       <c r="P21">
         <v>7</v>
       </c>
@@ -14210,7 +14212,7 @@
         <v>1.123111762239129E-3</v>
       </c>
     </row>
-    <row r="22" spans="8:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="8:18" x14ac:dyDescent="0.25">
       <c r="P22">
         <v>8</v>
       </c>
@@ -14223,7 +14225,7 @@
         <v>2.1282607395201065E-3</v>
       </c>
     </row>
-    <row r="23" spans="8:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="8:18" x14ac:dyDescent="0.25">
       <c r="P23">
         <v>9</v>
       </c>
@@ -14236,7 +14238,7 @@
         <v>4.0329857879435761E-3</v>
       </c>
     </row>
-    <row r="24" spans="8:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="8:18" x14ac:dyDescent="0.25">
       <c r="P24">
         <v>10</v>
       </c>
@@ -14249,7 +14251,7 @@
         <v>7.6423786163637032E-3</v>
       </c>
     </row>
-    <row r="25" spans="8:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="8:18" x14ac:dyDescent="0.25">
       <c r="P25">
         <v>11</v>
       </c>
@@ -14262,7 +14264,7 @@
         <v>1.4482062171023545E-2</v>
       </c>
     </row>
-    <row r="26" spans="8:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="8:18" x14ac:dyDescent="0.25">
       <c r="P26">
         <v>12</v>
       </c>
@@ -14275,7 +14277,7 @@
         <v>2.7443042965225671E-2</v>
       </c>
     </row>
-    <row r="27" spans="8:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="8:18" x14ac:dyDescent="0.25">
       <c r="P27">
         <v>13</v>
       </c>
@@ -14288,7 +14290,7 @@
         <v>5.2003685545426351E-2</v>
       </c>
     </row>
-    <row r="28" spans="8:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="8:18" x14ac:dyDescent="0.25">
       <c r="P28">
         <v>14</v>
       </c>
@@ -14301,7 +14303,7 @@
         <v>9.8545314881240756E-2</v>
       </c>
     </row>
-    <row r="29" spans="8:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="8:18" x14ac:dyDescent="0.25">
       <c r="P29">
         <v>15</v>
       </c>
@@ -14314,7 +14316,7 @@
         <v>0.18674020856771711</v>
       </c>
     </row>
-    <row r="30" spans="8:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="8:18" x14ac:dyDescent="0.25">
       <c r="P30">
         <v>16</v>
       </c>
@@ -14327,7 +14329,7 @@
         <v>0.35386670120177122</v>
       </c>
     </row>
-    <row r="31" spans="8:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="8:18" x14ac:dyDescent="0.25">
       <c r="P31">
         <v>17</v>
       </c>
@@ -14340,7 +14342,7 @@
         <v>0.6705660402752246</v>
       </c>
     </row>
-    <row r="32" spans="8:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="8:18" x14ac:dyDescent="0.25">
       <c r="P32">
         <v>18</v>
       </c>
@@ -14353,7 +14355,7 @@
         <v>1.270701122324599</v>
       </c>
     </row>
-    <row r="33" spans="16:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P33">
         <v>19</v>
       </c>
@@ -14366,7 +14368,7 @@
         <v>2.4079378395217743</v>
       </c>
     </row>
-    <row r="34" spans="16:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P34">
         <v>20</v>
       </c>
@@ -14379,7 +14381,7 @@
         <v>4.5629649153010314</v>
       </c>
     </row>
-    <row r="35" spans="16:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P35">
         <v>21</v>
       </c>
@@ -14392,7 +14394,7 @@
         <v>8.6466720513031383</v>
       </c>
     </row>
-    <row r="36" spans="16:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P36">
         <v>22</v>
       </c>
@@ -14405,7 +14407,7 @@
         <v>16.385165994171189</v>
       </c>
     </row>
-    <row r="37" spans="16:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P37">
         <v>23</v>
       </c>
@@ -14418,7 +14420,7 @@
         <v>31.049363623786608</v>
       </c>
     </row>
-    <row r="38" spans="16:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P38">
         <v>24</v>
       </c>
@@ -14431,7 +14433,7 @@
         <v>58.837547436814233</v>
       </c>
     </row>
-    <row r="39" spans="16:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P39">
         <v>25</v>
       </c>
@@ -14444,7 +14446,7 @@
         <v>111.49526381040775</v>
       </c>
     </row>
-    <row r="40" spans="16:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P40">
         <v>26</v>
       </c>
@@ -14457,7 +14459,7 @@
         <v>211.2799461177801</v>
       </c>
     </row>
-    <row r="41" spans="16:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P41">
         <v>27</v>
       </c>
@@ -14470,7 +14472,7 @@
         <v>400.36871617648973</v>
       </c>
     </row>
-    <row r="42" spans="16:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P42">
         <v>28</v>
       </c>
@@ -14483,7 +14485,7 @@
         <v>758.68586601897584</v>
       </c>
     </row>
-    <row r="43" spans="16:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P43">
         <v>29</v>
       </c>
@@ -14496,7 +14498,7 @@
         <v>1437.6853636167386</v>
       </c>
     </row>
-    <row r="44" spans="16:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P44">
         <v>30</v>
       </c>
@@ -14509,7 +14511,7 @@
         <v>2724.3676168683191</v>
       </c>
     </row>
-    <row r="45" spans="16:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P45">
         <v>31</v>
       </c>
@@ -14522,7 +14524,7 @@
         <v>5162.5891865303738</v>
       </c>
     </row>
-    <row r="46" spans="16:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P46">
         <v>32</v>
       </c>
@@ -14535,7 +14537,7 @@
         <v>9782.9407983924721</v>
       </c>
     </row>
-    <row r="47" spans="16:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P47">
         <v>33</v>
       </c>
@@ -14548,7 +14550,7 @@
         <v>18538.358797666235</v>
       </c>
     </row>
-    <row r="48" spans="16:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P48">
         <v>34</v>
       </c>
@@ -14561,7 +14563,7 @@
         <v>35129.594872687048</v>
       </c>
     </row>
-    <row r="49" spans="16:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P49">
         <v>35</v>
       </c>
